--- a/StructureDefinition-profile-EncounterHistory-for-Encounter.xlsx
+++ b/StructureDefinition-profile-EncounterHistory-for-Encounter.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3283" uniqueCount="541">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3506" uniqueCount="584">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T13:17:30.6811401-06:00</t>
+    <t>2026-02-09T22:05:43.0956825-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -426,33 +426,137 @@
     <t>Encounter.extension</t>
   </si>
   <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>Encounter.extension:subjectStatus</t>
+  </si>
+  <si>
+    <t>subjectStatus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-EncounterHistory.subjectStatus|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for EncounterHistory.subjectStatus from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>The subjectStatus value can be used to track the patient's status within the encounter. It details whether the patient has arrived or departed, has been triaged or is currently in a waiting status.</t>
+  </si>
+  <si>
+    <t>Element `EncounterHistory.subjectStatus` is will have a context of Encounter based on following the parent source element upwards and mapping to `Encounter`.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>Encounter.extension:actualPeriod</t>
+  </si>
+  <si>
+    <t>actualPeriod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-EncounterHistory.actualPeriod|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for EncounterHistory.actualPeriod from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>The start and end time associated with this set of values associated with the encounter, may be different to the planned times for various reasons.</t>
+  </si>
+  <si>
+    <t>Element `EncounterHistory.actualPeriod` is will have a context of Encounter based on following the parent source element upwards and mapping to `Encounter`.</t>
+  </si>
+  <si>
+    <t>Encounter.extension:plannedStartDate</t>
+  </si>
+  <si>
+    <t>plannedStartDate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-EncounterHistory.plannedStartDate|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for EncounterHistory.plannedStartDate from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>The planned start date/time (or admission date) of the encounter.</t>
+  </si>
+  <si>
+    <t>Element `EncounterHistory.plannedStartDate` is will have a context of Encounter based on following the parent source element upwards and mapping to `Encounter`.</t>
+  </si>
+  <si>
+    <t>Encounter.extension:plannedEndDate</t>
+  </si>
+  <si>
+    <t>plannedEndDate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-EncounterHistory.plannedEndDate|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for EncounterHistory.plannedEndDate from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>The planned end date/time (or discharge date) of the encounter.</t>
+  </si>
+  <si>
+    <t>Element `EncounterHistory.plannedEndDate` is will have a context of Encounter based on following the parent source element upwards and mapping to `Encounter`.</t>
+  </si>
+  <si>
+    <t>Encounter.extension:encounter</t>
+  </si>
+  <si>
+    <t>encounter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {alternate-reference|5.2.0}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for EncounterHistory.encounter from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/Encounter in FHIR R4</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `EncounterHistory.encounter` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `EncounterHistory.encounter` is will have a context of Encounter based on following the parent source element upwards and mapping to `Encounter`.</t>
+  </si>
+  <si>
+    <t>Encounter.modifierExtension</t>
+  </si>
+  <si>
     <t>extensions
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>Encounter.modifierExtension</t>
-  </si>
-  <si>
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
@@ -460,6 +564,9 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
@@ -543,20 +650,13 @@
     <t>Encounter.status.extension</t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
     <t>Element.extension</t>
+  </si>
+  <si>
+    <t>Encounter.status.extension:status</t>
+  </si>
+  <si>
+    <t>status</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-EncounterHistory.status|0.0.1-snapshot-3}
@@ -569,8 +669,8 @@
     <t>planned | in-progress | on-hold | discharged | completed | cancelled | discontinued | entered-in-error | unknown.</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1
-</t>
+    <t>Note that the target element context `Encounter.status` is a modifier element, so this extension does not need to be defined as a modifier.
+Element `EncounterHistory.status` is mapped to FHIR R4 element `Encounter.status`.</t>
   </si>
   <si>
     <t>Encounter.status.value</t>
@@ -613,6 +713,9 @@
     <t>Encounter.statusHistory.extension</t>
   </si>
   <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
@@ -689,6 +792,12 @@
     <t>Extensions are always sliced by (at least) url</t>
   </si>
   <si>
+    <t>Encounter.class.extension:class</t>
+  </si>
+  <si>
+    <t>class</t>
+  </si>
+  <si>
     <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-EncounterHistory.class|0.0.1-snapshot-3}
 </t>
   </si>
@@ -696,6 +805,9 @@
     <t>Cross-version extension for EncounterHistory.class from R5 for use in FHIR R4</t>
   </si>
   <si>
+    <t>Element `EncounterHistory.class` is mapped to FHIR R4 element `Encounter.class`.</t>
+  </si>
+  <si>
     <t>Encounter.class.system</t>
   </si>
   <si>
@@ -905,11 +1017,20 @@
     <t>Encounter.serviceType.extension</t>
   </si>
   <si>
+    <t>Encounter.serviceType.extension:serviceType</t>
+  </si>
+  <si>
+    <t>serviceType</t>
+  </si>
+  <si>
     <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-EncounterHistory.serviceType|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
     <t>Cross-version extension for EncounterHistory.serviceType from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `EncounterHistory.serviceType` is mapped to FHIR R4 element `Encounter.serviceType`.</t>
   </si>
   <si>
     <t>Encounter.serviceType.coding</t>
@@ -1574,6 +1695,25 @@
     <t>Encounter.location.extension</t>
   </si>
   <si>
+    <t>Encounter.location.extension:form</t>
+  </si>
+  <si>
+    <t>form</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-EncounterHistory.location.form|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for EncounterHistory.location.form from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>This will be used to specify the required levels (bed/ward/room/etc.) desired to be recorded to simplify either messaging or query.</t>
+  </si>
+  <si>
+    <t>Element `EncounterHistory.location.form` is will have a context of Encounter.location based on following the parent source element upwards and mapping to `Encounter`.</t>
+  </si>
+  <si>
     <t>Encounter.location.modifierExtension</t>
   </si>
   <si>
@@ -1624,9 +1764,6 @@
   </si>
   <si>
     <t>The physical type of the location (usually the level in the location hierachy - bed room ward etc.)</t>
-  </si>
-  <si>
-    <t>This will be used to specify the required levels (bed/ward/room/etc.) desired to be recorded to simplify either messaging or query.</t>
   </si>
   <si>
     <t>This information is de-normalized from the Location resource to support the easier understanding of the encounter resource and processing in messaging or query.
@@ -1995,7 +2132,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN91"/>
+  <dimension ref="A1:AN97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2006,7 +2143,7 @@
   <cols>
     <col min="1" max="1" width="40.34765625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="40.34765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="9.984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="15.12109375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
@@ -2014,7 +2151,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="92.078125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="96.79296875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2970,7 +3107,7 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>133</v>
+        <v>80</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2989,17 +3126,15 @@
         <v>80</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L9" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="M9" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>137</v>
-      </c>
+      <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>80</v>
@@ -3036,16 +3171,14 @@
         <v>80</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>138</v>
@@ -3066,7 +3199,7 @@
         <v>80</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>131</v>
+        <v>80</v>
       </c>
       <c r="AM9" t="s" s="2">
         <v>80</v>
@@ -3080,43 +3213,43 @@
         <v>140</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="C10" s="2"/>
+        <v>132</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="D10" t="s" s="2">
-        <v>133</v>
+        <v>80</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>80</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>80</v>
       </c>
@@ -3164,7 +3297,7 @@
         <v>80</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>78</v>
@@ -3173,7 +3306,7 @@
         <v>79</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>80</v>
+        <v>146</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>139</v>
@@ -3182,7 +3315,7 @@
         <v>80</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>131</v>
+        <v>80</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>80</v>
@@ -3193,12 +3326,14 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="C11" s="2"/>
+        <v>132</v>
+      </c>
+      <c r="C11" t="s" s="2">
+        <v>148</v>
+      </c>
       <c r="D11" t="s" s="2">
         <v>80</v>
       </c>
@@ -3207,7 +3342,7 @@
         <v>78</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>80</v>
@@ -3216,18 +3351,20 @@
         <v>80</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="N11" s="2"/>
+        <v>151</v>
+      </c>
+      <c r="N11" t="s" s="2">
+        <v>152</v>
+      </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
         <v>80</v>
@@ -3276,7 +3413,7 @@
         <v>80</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>78</v>
@@ -3285,22 +3422,22 @@
         <v>79</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>80</v>
+        <v>146</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>149</v>
+        <v>80</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>151</v>
+        <v>80</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>152</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12">
@@ -3308,15 +3445,17 @@
         <v>153</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="C12" s="2"/>
+        <v>132</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>154</v>
+      </c>
       <c r="D12" t="s" s="2">
         <v>80</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>88</v>
@@ -3325,22 +3464,22 @@
         <v>80</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>108</v>
+        <v>155</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -3366,13 +3505,13 @@
         <v>80</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>157</v>
+        <v>80</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>158</v>
+        <v>80</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>159</v>
+        <v>80</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>80</v>
@@ -3390,41 +3529,43 @@
         <v>80</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>80</v>
+        <v>146</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>161</v>
+        <v>80</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>162</v>
+        <v>80</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>163</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="C13" s="2"/>
+        <v>132</v>
+      </c>
+      <c r="C13" t="s" s="2">
+        <v>160</v>
+      </c>
       <c r="D13" t="s" s="2">
         <v>80</v>
       </c>
@@ -3445,15 +3586,17 @@
         <v>80</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="N13" s="2"/>
+        <v>163</v>
+      </c>
+      <c r="N13" t="s" s="2">
+        <v>164</v>
+      </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>80</v>
@@ -3502,19 +3645,19 @@
         <v>80</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>168</v>
+        <v>138</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>80</v>
+        <v>146</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>80</v>
@@ -3531,22 +3674,24 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="C14" s="2"/>
+        <v>132</v>
+      </c>
+      <c r="C14" t="s" s="2">
+        <v>166</v>
+      </c>
       <c r="D14" t="s" s="2">
         <v>80</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G14" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G14" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="H14" t="s" s="2">
         <v>80</v>
       </c>
@@ -3557,15 +3702,17 @@
         <v>80</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>134</v>
+        <v>167</v>
       </c>
       <c r="L14" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="M14" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="N14" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="M14" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>80</v>
@@ -3602,17 +3749,19 @@
         <v>80</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="AC14" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="AD14" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>173</v>
+        <v>80</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>174</v>
+        <v>138</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -3641,44 +3790,46 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>80</v>
+        <v>172</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J15" t="s" s="2">
         <v>80</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L15" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="M15" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="N15" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="O15" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="M15" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>80</v>
       </c>
@@ -3726,7 +3877,7 @@
         <v>80</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>78</v>
@@ -3735,7 +3886,7 @@
         <v>79</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>178</v>
+        <v>80</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>139</v>
@@ -3744,7 +3895,7 @@
         <v>80</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>80</v>
+        <v>131</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>80</v>
@@ -3755,10 +3906,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3769,7 +3920,7 @@
         <v>78</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>80</v>
@@ -3778,16 +3929,16 @@
         <v>80</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="L16" t="s" s="2">
         <v>180</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -3838,39 +3989,39 @@
         <v>80</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>80</v>
+        <v>182</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>80</v>
+        <v>183</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>80</v>
+        <v>184</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>80</v>
+        <v>185</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3878,31 +4029,31 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>183</v>
+        <v>108</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3928,13 +4079,13 @@
         <v>80</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>80</v>
+        <v>190</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>80</v>
+        <v>191</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>80</v>
+        <v>192</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>80</v>
@@ -3952,13 +4103,13 @@
         <v>80</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>80</v>
@@ -3967,24 +4118,24 @@
         <v>100</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>80</v>
+        <v>193</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>80</v>
+        <v>195</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>80</v>
+        <v>196</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4007,13 +4158,13 @@
         <v>80</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>165</v>
+        <v>198</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -4064,7 +4215,7 @@
         <v>80</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>168</v>
+        <v>201</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>78</v>
@@ -4082,7 +4233,7 @@
         <v>80</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>187</v>
+        <v>80</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>80</v>
@@ -4093,18 +4244,18 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>133</v>
+        <v>80</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>79</v>
@@ -4119,17 +4270,15 @@
         <v>80</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="M19" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>137</v>
-      </c>
+      <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>80</v>
@@ -4166,19 +4315,17 @@
         <v>80</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC19" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="AC19" s="2"/>
       <c r="AD19" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>174</v>
+        <v>203</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
@@ -4196,7 +4343,7 @@
         <v>80</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>187</v>
+        <v>80</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>80</v>
@@ -4207,46 +4354,46 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="C20" s="2"/>
+        <v>202</v>
+      </c>
+      <c r="C20" t="s" s="2">
+        <v>205</v>
+      </c>
       <c r="D20" t="s" s="2">
-        <v>194</v>
+        <v>80</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>134</v>
+        <v>206</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="O20" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>80</v>
       </c>
@@ -4294,7 +4441,7 @@
         <v>80</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>78</v>
@@ -4303,7 +4450,7 @@
         <v>79</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>80</v>
+        <v>146</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>139</v>
@@ -4312,7 +4459,7 @@
         <v>80</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>131</v>
+        <v>80</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>80</v>
@@ -4323,10 +4470,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4334,7 +4481,7 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>88</v>
@@ -4349,13 +4496,13 @@
         <v>80</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>108</v>
+        <v>198</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>154</v>
+        <v>211</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>155</v>
+        <v>211</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -4382,13 +4529,13 @@
         <v>80</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>157</v>
+        <v>80</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>158</v>
+        <v>80</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>159</v>
+        <v>80</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>80</v>
@@ -4406,10 +4553,10 @@
         <v>80</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>198</v>
+        <v>212</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>88</v>
@@ -4418,13 +4565,13 @@
         <v>80</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>187</v>
+        <v>80</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>80</v>
@@ -4435,10 +4582,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>199</v>
+        <v>213</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>199</v>
+        <v>213</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4446,10 +4593,10 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>80</v>
@@ -4461,15 +4608,17 @@
         <v>80</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>200</v>
+        <v>214</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>201</v>
+        <v>215</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="N22" s="2"/>
+        <v>216</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>217</v>
+      </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>80</v>
@@ -4518,13 +4667,13 @@
         <v>80</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>199</v>
+        <v>213</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>80</v>
@@ -4536,7 +4685,7 @@
         <v>80</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>187</v>
+        <v>218</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>80</v>
@@ -4547,10 +4696,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>203</v>
+        <v>219</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>203</v>
+        <v>219</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4558,7 +4707,7 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>88</v>
@@ -4570,16 +4719,16 @@
         <v>80</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4606,13 +4755,13 @@
         <v>80</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>207</v>
+        <v>80</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>208</v>
+        <v>80</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>209</v>
+        <v>80</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>80</v>
@@ -4630,10 +4779,10 @@
         <v>80</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>88</v>
@@ -4642,38 +4791,38 @@
         <v>80</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>211</v>
+        <v>80</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>212</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>80</v>
+        <v>172</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>80</v>
@@ -4685,15 +4834,17 @@
         <v>80</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>165</v>
+        <v>133</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>189</v>
+        <v>223</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="N24" s="2"/>
+        <v>224</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>175</v>
+      </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>80</v>
@@ -4742,25 +4893,25 @@
         <v>80</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>168</v>
+        <v>203</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>187</v>
+        <v>218</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>80</v>
@@ -4771,18 +4922,18 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>80</v>
+        <v>226</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>79</v>
@@ -4791,22 +4942,26 @@
         <v>80</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>170</v>
+        <v>227</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
+        <v>228</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="O25" t="s" s="2">
+        <v>176</v>
+      </c>
       <c r="P25" t="s" s="2">
         <v>80</v>
       </c>
@@ -4842,19 +4997,19 @@
         <v>80</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>172</v>
+        <v>80</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>215</v>
+        <v>80</v>
       </c>
       <c r="AD25" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>173</v>
+        <v>80</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>174</v>
+        <v>229</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>78</v>
@@ -4872,7 +5027,7 @@
         <v>80</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>80</v>
+        <v>131</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>80</v>
@@ -4883,10 +5038,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>214</v>
+        <v>230</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>214</v>
+        <v>230</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4909,13 +5064,13 @@
         <v>80</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>216</v>
+        <v>108</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>217</v>
+        <v>187</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>206</v>
+        <v>188</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4942,13 +5097,13 @@
         <v>80</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>80</v>
+        <v>190</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>80</v>
+        <v>191</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>80</v>
+        <v>192</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>80</v>
@@ -4966,25 +5121,25 @@
         <v>80</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>174</v>
+        <v>230</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>80</v>
+        <v>218</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>80</v>
@@ -4995,10 +5150,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>218</v>
+        <v>231</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>218</v>
+        <v>231</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5006,7 +5161,7 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>88</v>
@@ -5018,23 +5173,19 @@
         <v>80</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>102</v>
+        <v>232</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>219</v>
+        <v>233</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="O27" t="s" s="2">
-        <v>222</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>80</v>
       </c>
@@ -5082,10 +5233,10 @@
         <v>80</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>88</v>
@@ -5100,21 +5251,21 @@
         <v>80</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>225</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5122,7 +5273,7 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>88</v>
@@ -5137,17 +5288,15 @@
         <v>89</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>165</v>
+        <v>236</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>229</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>80</v>
@@ -5172,13 +5321,13 @@
         <v>80</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>80</v>
+        <v>239</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>80</v>
+        <v>240</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>80</v>
+        <v>241</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>80</v>
@@ -5196,10 +5345,10 @@
         <v>80</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>88</v>
@@ -5214,21 +5363,21 @@
         <v>80</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>80</v>
+        <v>243</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>232</v>
+        <v>244</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5248,21 +5397,19 @@
         <v>80</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>108</v>
+        <v>198</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="N29" s="2"/>
-      <c r="O29" t="s" s="2">
-        <v>236</v>
-      </c>
+      <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>80</v>
       </c>
@@ -5310,7 +5457,7 @@
         <v>80</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>237</v>
+        <v>201</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
@@ -5322,27 +5469,27 @@
         <v>80</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>238</v>
+        <v>218</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>239</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5350,10 +5497,10 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>80</v>
@@ -5362,21 +5509,19 @@
         <v>80</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>165</v>
+        <v>133</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>241</v>
+        <v>134</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>242</v>
+        <v>135</v>
       </c>
       <c r="N30" s="2"/>
-      <c r="O30" t="s" s="2">
-        <v>243</v>
-      </c>
+      <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>80</v>
       </c>
@@ -5412,59 +5557,61 @@
         <v>80</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>80</v>
+        <v>136</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>80</v>
+        <v>247</v>
       </c>
       <c r="AD30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>244</v>
+        <v>203</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>245</v>
+        <v>80</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>246</v>
+        <v>80</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="C31" s="2"/>
+        <v>246</v>
+      </c>
+      <c r="C31" t="s" s="2">
+        <v>249</v>
+      </c>
       <c r="D31" t="s" s="2">
         <v>80</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>88</v>
@@ -5476,23 +5623,21 @@
         <v>80</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="O31" t="s" s="2">
         <v>252</v>
       </c>
+      <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>80</v>
       </c>
@@ -5540,39 +5685,39 @@
         <v>80</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>253</v>
+        <v>203</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>254</v>
+        <v>80</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>255</v>
+        <v>80</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5583,7 +5728,7 @@
         <v>78</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>80</v>
@@ -5592,19 +5737,23 @@
         <v>80</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>183</v>
+        <v>102</v>
       </c>
       <c r="L32" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="O32" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="M32" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>80</v>
       </c>
@@ -5652,13 +5801,13 @@
         <v>80</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>80</v>
@@ -5670,21 +5819,21 @@
         <v>80</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>187</v>
+        <v>259</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>80</v>
+        <v>260</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5704,18 +5853,20 @@
         <v>80</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>165</v>
+        <v>198</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>189</v>
+        <v>262</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="N33" s="2"/>
+        <v>263</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>264</v>
+      </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>80</v>
@@ -5764,7 +5915,7 @@
         <v>80</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>168</v>
+        <v>265</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
@@ -5776,38 +5927,38 @@
         <v>80</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>187</v>
+        <v>266</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>80</v>
+        <v>267</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>133</v>
+        <v>80</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>80</v>
@@ -5816,21 +5967,21 @@
         <v>80</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>134</v>
+        <v>108</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>135</v>
+        <v>269</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="O34" s="2"/>
+        <v>270</v>
+      </c>
+      <c r="N34" s="2"/>
+      <c r="O34" t="s" s="2">
+        <v>271</v>
+      </c>
       <c r="P34" t="s" s="2">
         <v>80</v>
       </c>
@@ -5878,74 +6029,72 @@
         <v>80</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>174</v>
+        <v>272</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>187</v>
+        <v>273</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>80</v>
+        <v>274</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>261</v>
+        <v>275</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>261</v>
+        <v>275</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>194</v>
+        <v>80</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J35" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>134</v>
+        <v>198</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>195</v>
+        <v>276</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>143</v>
+        <v>278</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>80</v>
@@ -5994,39 +6143,39 @@
         <v>80</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>197</v>
+        <v>279</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>131</v>
+        <v>280</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>80</v>
+        <v>281</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>262</v>
+        <v>282</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>262</v>
+        <v>282</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6034,7 +6183,7 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>88</v>
@@ -6046,19 +6195,23 @@
         <v>80</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>204</v>
+        <v>283</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>263</v>
+        <v>284</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
+        <v>285</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="O36" t="s" s="2">
+        <v>287</v>
+      </c>
       <c r="P36" t="s" s="2">
         <v>80</v>
       </c>
@@ -6082,13 +6235,13 @@
         <v>80</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>207</v>
+        <v>80</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>208</v>
+        <v>80</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>209</v>
+        <v>80</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>80</v>
@@ -6106,10 +6259,10 @@
         <v>80</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>262</v>
+        <v>288</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>88</v>
@@ -6124,21 +6277,21 @@
         <v>80</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>187</v>
+        <v>289</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>80</v>
+        <v>290</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>265</v>
+        <v>291</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>265</v>
+        <v>291</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6146,10 +6299,10 @@
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>80</v>
@@ -6161,13 +6314,13 @@
         <v>80</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>200</v>
+        <v>214</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>266</v>
+        <v>292</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>267</v>
+        <v>293</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -6218,13 +6371,13 @@
         <v>80</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>265</v>
+        <v>291</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>80</v>
@@ -6236,7 +6389,7 @@
         <v>80</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>187</v>
+        <v>218</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>80</v>
@@ -6247,10 +6400,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>268</v>
+        <v>294</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>268</v>
+        <v>294</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6261,7 +6414,7 @@
         <v>78</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>80</v>
@@ -6270,20 +6423,18 @@
         <v>80</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>269</v>
+        <v>198</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>270</v>
+        <v>220</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>272</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="N38" s="2"/>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>80</v>
@@ -6308,13 +6459,13 @@
         <v>80</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>273</v>
+        <v>80</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>274</v>
+        <v>80</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>275</v>
+        <v>80</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>80</v>
@@ -6332,50 +6483,50 @@
         <v>80</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>268</v>
+        <v>201</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>276</v>
+        <v>80</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>277</v>
+        <v>218</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>211</v>
+        <v>80</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>278</v>
+        <v>80</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>279</v>
+        <v>295</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>279</v>
+        <v>295</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>80</v>
+        <v>172</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>80</v>
@@ -6384,18 +6535,20 @@
         <v>80</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>269</v>
+        <v>133</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>280</v>
+        <v>223</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="N39" s="2"/>
+        <v>224</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>175</v>
+      </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>80</v>
@@ -6420,13 +6573,13 @@
         <v>80</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>273</v>
+        <v>80</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>282</v>
+        <v>80</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>283</v>
+        <v>80</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>80</v>
@@ -6444,71 +6597,75 @@
         <v>80</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>279</v>
+        <v>203</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>276</v>
+        <v>80</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>187</v>
+        <v>218</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>284</v>
+        <v>80</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>80</v>
+        <v>226</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>165</v>
+        <v>133</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>189</v>
+        <v>227</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="N40" s="2"/>
-      <c r="O40" s="2"/>
+        <v>228</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="O40" t="s" s="2">
+        <v>176</v>
+      </c>
       <c r="P40" t="s" s="2">
         <v>80</v>
       </c>
@@ -6556,25 +6713,25 @@
         <v>80</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>168</v>
+        <v>229</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>187</v>
+        <v>131</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>80</v>
@@ -6585,10 +6742,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>286</v>
+        <v>297</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>286</v>
+        <v>297</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6599,7 +6756,7 @@
         <v>88</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>80</v>
@@ -6611,13 +6768,13 @@
         <v>80</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>134</v>
+        <v>236</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>170</v>
+        <v>298</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>171</v>
+        <v>299</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6644,49 +6801,49 @@
         <v>80</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>80</v>
+        <v>239</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>80</v>
+        <v>240</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>80</v>
+        <v>241</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>172</v>
+        <v>80</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>215</v>
+        <v>80</v>
       </c>
       <c r="AD41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>173</v>
+        <v>80</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>174</v>
+        <v>297</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>80</v>
+        <v>218</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>80</v>
@@ -6697,10 +6854,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>286</v>
+        <v>300</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>286</v>
+        <v>300</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6708,10 +6865,10 @@
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>80</v>
@@ -6723,13 +6880,13 @@
         <v>80</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>287</v>
+        <v>232</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>288</v>
+        <v>301</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>281</v>
+        <v>302</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6780,25 +6937,25 @@
         <v>80</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>174</v>
+        <v>300</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>80</v>
+        <v>218</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>80</v>
@@ -6809,10 +6966,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>289</v>
+        <v>303</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>289</v>
+        <v>303</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6835,20 +6992,18 @@
         <v>89</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>204</v>
+        <v>304</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>290</v>
+        <v>305</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>293</v>
-      </c>
+        <v>307</v>
+      </c>
+      <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>80</v>
       </c>
@@ -6872,13 +7027,13 @@
         <v>80</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>80</v>
+        <v>308</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>80</v>
+        <v>309</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>80</v>
+        <v>310</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>80</v>
@@ -6896,7 +7051,7 @@
         <v>80</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
@@ -6911,24 +7066,24 @@
         <v>100</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>80</v>
+        <v>311</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>295</v>
+        <v>312</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>80</v>
+        <v>243</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>296</v>
+        <v>313</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>297</v>
+        <v>314</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>297</v>
+        <v>314</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6951,20 +7106,16 @@
         <v>89</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>165</v>
+        <v>304</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>298</v>
+        <v>315</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>301</v>
-      </c>
+        <v>316</v>
+      </c>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>80</v>
       </c>
@@ -6988,13 +7139,13 @@
         <v>80</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>80</v>
+        <v>308</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>80</v>
+        <v>317</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>80</v>
+        <v>318</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>80</v>
@@ -7012,7 +7163,7 @@
         <v>80</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>302</v>
+        <v>314</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
@@ -7027,24 +7178,24 @@
         <v>100</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>80</v>
+        <v>311</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>303</v>
+        <v>218</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>304</v>
+        <v>319</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>305</v>
+        <v>320</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>305</v>
+        <v>320</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7067,13 +7218,13 @@
         <v>80</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>269</v>
+        <v>198</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>306</v>
+        <v>220</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>307</v>
+        <v>221</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -7100,13 +7251,13 @@
         <v>80</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>273</v>
+        <v>80</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>307</v>
+        <v>80</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>308</v>
+        <v>80</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>80</v>
@@ -7124,7 +7275,7 @@
         <v>80</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>305</v>
+        <v>201</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
@@ -7136,38 +7287,38 @@
         <v>80</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>309</v>
+        <v>218</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>310</v>
+        <v>80</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>311</v>
+        <v>80</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>313</v>
+        <v>80</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>80</v>
@@ -7176,20 +7327,18 @@
         <v>80</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>314</v>
+        <v>133</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>315</v>
+        <v>134</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>317</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="N46" s="2"/>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>80</v>
@@ -7226,43 +7375,43 @@
         <v>80</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>80</v>
+        <v>136</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>80</v>
+        <v>247</v>
       </c>
       <c r="AD46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>312</v>
+        <v>203</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>318</v>
+        <v>80</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>319</v>
+        <v>80</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>320</v>
+        <v>80</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>321</v>
+        <v>80</v>
       </c>
     </row>
     <row r="47">
@@ -7270,9 +7419,11 @@
         <v>322</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="C47" s="2"/>
+        <v>321</v>
+      </c>
+      <c r="C47" t="s" s="2">
+        <v>323</v>
+      </c>
       <c r="D47" t="s" s="2">
         <v>80</v>
       </c>
@@ -7290,18 +7441,20 @@
         <v>80</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="N47" s="2"/>
+        <v>316</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>326</v>
+      </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>80</v>
@@ -7350,7 +7503,7 @@
         <v>80</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>322</v>
+        <v>203</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
@@ -7362,31 +7515,31 @@
         <v>80</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>326</v>
+        <v>80</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>187</v>
+        <v>80</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>327</v>
+        <v>80</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>328</v>
+        <v>80</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>330</v>
+        <v>80</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
@@ -7402,19 +7555,23 @@
         <v>80</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="O48" t="s" s="2">
         <v>331</v>
       </c>
-      <c r="L48" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="N48" s="2"/>
-      <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>80</v>
       </c>
@@ -7462,7 +7619,7 @@
         <v>80</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
@@ -7477,24 +7634,24 @@
         <v>100</v>
       </c>
       <c r="AK48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL48" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="AM48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN48" t="s" s="2">
         <v>334</v>
-      </c>
-      <c r="AL48" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="AM48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN48" t="s" s="2">
-        <v>80</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7505,7 +7662,7 @@
         <v>78</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>80</v>
@@ -7517,16 +7674,20 @@
         <v>89</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>183</v>
+        <v>198</v>
       </c>
       <c r="L49" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="M49" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="M49" t="s" s="2">
+      <c r="N49" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="N49" s="2"/>
-      <c r="O49" s="2"/>
+      <c r="O49" t="s" s="2">
+        <v>339</v>
+      </c>
       <c r="P49" t="s" s="2">
         <v>80</v>
       </c>
@@ -7574,13 +7735,13 @@
         <v>80</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>80</v>
@@ -7589,24 +7750,24 @@
         <v>100</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>339</v>
+        <v>80</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7629,13 +7790,13 @@
         <v>80</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>165</v>
+        <v>304</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>189</v>
+        <v>344</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>190</v>
+        <v>345</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7662,13 +7823,13 @@
         <v>80</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>80</v>
+        <v>308</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>80</v>
+        <v>345</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>80</v>
+        <v>346</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>80</v>
@@ -7686,7 +7847,7 @@
         <v>80</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>168</v>
+        <v>343</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
@@ -7698,38 +7859,38 @@
         <v>80</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>187</v>
+        <v>347</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>80</v>
+        <v>348</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>80</v>
+        <v>349</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>133</v>
+        <v>351</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>80</v>
@@ -7738,19 +7899,19 @@
         <v>80</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>134</v>
+        <v>352</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>135</v>
+        <v>353</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>192</v>
+        <v>354</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>137</v>
+        <v>355</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -7800,43 +7961,43 @@
         <v>80</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>174</v>
+        <v>350</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>80</v>
+        <v>356</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>187</v>
+        <v>357</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>80</v>
+        <v>358</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>80</v>
+        <v>359</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>344</v>
+        <v>360</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>344</v>
+        <v>360</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>194</v>
+        <v>80</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
@@ -7849,26 +8010,22 @@
         <v>80</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J52" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>134</v>
+        <v>361</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>195</v>
+        <v>362</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="O52" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>363</v>
+      </c>
+      <c r="N52" s="2"/>
+      <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>80</v>
       </c>
@@ -7916,7 +8073,7 @@
         <v>80</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>197</v>
+        <v>360</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
@@ -7928,31 +8085,31 @@
         <v>80</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>80</v>
+        <v>364</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>131</v>
+        <v>218</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>80</v>
+        <v>365</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>80</v>
+        <v>366</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>345</v>
+        <v>367</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>345</v>
+        <v>367</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>80</v>
+        <v>368</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -7968,20 +8125,18 @@
         <v>80</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>269</v>
+        <v>369</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>346</v>
+        <v>370</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>348</v>
-      </c>
+        <v>371</v>
+      </c>
+      <c r="N53" s="2"/>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>80</v>
@@ -8006,13 +8161,13 @@
         <v>80</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>207</v>
+        <v>80</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>347</v>
+        <v>80</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>349</v>
+        <v>80</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>80</v>
@@ -8030,7 +8185,7 @@
         <v>80</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>345</v>
+        <v>367</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
@@ -8045,24 +8200,24 @@
         <v>100</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>350</v>
+        <v>372</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>351</v>
+        <v>373</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>352</v>
+        <v>80</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>353</v>
+        <v>374</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>353</v>
+        <v>374</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8073,7 +8228,7 @@
         <v>78</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>80</v>
@@ -8082,16 +8237,16 @@
         <v>80</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>200</v>
+        <v>214</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>354</v>
+        <v>375</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>355</v>
+        <v>376</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -8142,13 +8297,13 @@
         <v>80</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>353</v>
+        <v>374</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>80</v>
@@ -8157,24 +8312,24 @@
         <v>100</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>80</v>
+        <v>377</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>356</v>
+        <v>378</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>357</v>
+        <v>379</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>358</v>
+        <v>380</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>358</v>
+        <v>380</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8194,16 +8349,16 @@
         <v>80</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>359</v>
+        <v>198</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>360</v>
+        <v>220</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>361</v>
+        <v>221</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8254,7 +8409,7 @@
         <v>80</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>358</v>
+        <v>201</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
@@ -8266,31 +8421,31 @@
         <v>80</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>362</v>
+        <v>80</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>363</v>
+        <v>218</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>364</v>
+        <v>80</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>365</v>
+        <v>80</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>366</v>
+        <v>381</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>366</v>
+        <v>381</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>80</v>
+        <v>172</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
@@ -8306,18 +8461,20 @@
         <v>80</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>367</v>
+        <v>133</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>368</v>
+        <v>223</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="N56" s="2"/>
+        <v>224</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>175</v>
+      </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>80</v>
@@ -8366,7 +8523,7 @@
         <v>80</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>366</v>
+        <v>203</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
@@ -8378,61 +8535,63 @@
         <v>80</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>334</v>
+        <v>80</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>370</v>
+        <v>218</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>371</v>
+        <v>80</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>80</v>
+        <v>226</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>200</v>
+        <v>133</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>373</v>
+        <v>227</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>374</v>
+        <v>228</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="O57" s="2"/>
+        <v>175</v>
+      </c>
+      <c r="O57" t="s" s="2">
+        <v>176</v>
+      </c>
       <c r="P57" t="s" s="2">
         <v>80</v>
       </c>
@@ -8480,39 +8639,39 @@
         <v>80</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>372</v>
+        <v>229</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>376</v>
+        <v>80</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>377</v>
+        <v>131</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>378</v>
+        <v>80</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>379</v>
+        <v>80</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8523,7 +8682,7 @@
         <v>78</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>80</v>
@@ -8532,19 +8691,19 @@
         <v>80</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>381</v>
+        <v>304</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -8570,13 +8729,13 @@
         <v>80</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>80</v>
+        <v>239</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>80</v>
+        <v>385</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>80</v>
+        <v>387</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>80</v>
@@ -8594,13 +8753,13 @@
         <v>80</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>80</v>
@@ -8609,35 +8768,35 @@
         <v>100</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>376</v>
+        <v>388</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>386</v>
+        <v>390</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>388</v>
+        <v>80</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>80</v>
@@ -8646,20 +8805,18 @@
         <v>80</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>269</v>
+        <v>232</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>391</v>
-      </c>
+        <v>393</v>
+      </c>
+      <c r="N59" s="2"/>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>80</v>
@@ -8684,13 +8841,13 @@
         <v>80</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>392</v>
+        <v>80</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>393</v>
+        <v>80</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>80</v>
@@ -8708,13 +8865,13 @@
         <v>80</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>80</v>
@@ -8723,35 +8880,35 @@
         <v>100</v>
       </c>
       <c r="AK59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL59" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="AL59" t="s" s="2">
+      <c r="AM59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN59" t="s" s="2">
         <v>395</v>
-      </c>
-      <c r="AM59" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="AN59" t="s" s="2">
-        <v>397</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>388</v>
+        <v>80</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>80</v>
@@ -8763,17 +8920,15 @@
         <v>89</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="M60" t="s" s="2">
         <v>399</v>
       </c>
-      <c r="L60" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>391</v>
-      </c>
+      <c r="N60" s="2"/>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>80</v>
@@ -8822,13 +8977,13 @@
         <v>80</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>80</v>
@@ -8837,24 +8992,24 @@
         <v>100</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>397</v>
+        <v>403</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8877,13 +9032,13 @@
         <v>89</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>183</v>
+        <v>405</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -8934,7 +9089,7 @@
         <v>80</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>78</v>
@@ -8949,24 +9104,24 @@
         <v>100</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>80</v>
+        <v>372</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>80</v>
+        <v>409</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8989,15 +9144,17 @@
         <v>80</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>165</v>
+        <v>232</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>189</v>
+        <v>411</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="N62" s="2"/>
+        <v>412</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>413</v>
+      </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>80</v>
@@ -9046,7 +9203,7 @@
         <v>80</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>168</v>
+        <v>410</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>78</v>
@@ -9058,38 +9215,38 @@
         <v>80</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>80</v>
+        <v>414</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>187</v>
+        <v>415</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>80</v>
+        <v>416</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>80</v>
+        <v>417</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>406</v>
+        <v>418</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>406</v>
+        <v>418</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>133</v>
+        <v>80</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>80</v>
@@ -9101,16 +9258,16 @@
         <v>80</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>134</v>
+        <v>419</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>135</v>
+        <v>420</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>192</v>
+        <v>421</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>137</v>
+        <v>422</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -9160,43 +9317,43 @@
         <v>80</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>174</v>
+        <v>418</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>80</v>
+        <v>414</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>187</v>
+        <v>423</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>80</v>
+        <v>424</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>407</v>
+        <v>425</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>407</v>
+        <v>425</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>194</v>
+        <v>426</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
@@ -9209,26 +9366,24 @@
         <v>80</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J64" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>134</v>
+        <v>304</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>195</v>
+        <v>427</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>196</v>
+        <v>428</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="O64" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>429</v>
+      </c>
+      <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>80</v>
       </c>
@@ -9252,13 +9407,13 @@
         <v>80</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>80</v>
+        <v>430</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>80</v>
+        <v>431</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>80</v>
@@ -9276,7 +9431,7 @@
         <v>80</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>197</v>
+        <v>425</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>78</v>
@@ -9288,38 +9443,38 @@
         <v>80</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>80</v>
+        <v>432</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>131</v>
+        <v>433</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>80</v>
+        <v>434</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>80</v>
+        <v>435</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>408</v>
+        <v>436</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>408</v>
+        <v>436</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>409</v>
+        <v>426</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>80</v>
@@ -9331,16 +9486,16 @@
         <v>89</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>410</v>
+        <v>437</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>411</v>
+        <v>438</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>412</v>
+        <v>428</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>391</v>
+        <v>429</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -9390,13 +9545,13 @@
         <v>80</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>408</v>
+        <v>436</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>80</v>
@@ -9405,24 +9560,24 @@
         <v>100</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>413</v>
+        <v>432</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>414</v>
+        <v>433</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>396</v>
+        <v>434</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>415</v>
+        <v>435</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>416</v>
+        <v>439</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>416</v>
+        <v>439</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9433,7 +9588,7 @@
         <v>78</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>80</v>
@@ -9442,16 +9597,16 @@
         <v>80</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>269</v>
+        <v>214</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>417</v>
+        <v>440</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>418</v>
+        <v>441</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -9478,13 +9633,13 @@
         <v>80</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>419</v>
+        <v>80</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>420</v>
+        <v>80</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>80</v>
@@ -9502,13 +9657,13 @@
         <v>80</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>416</v>
+        <v>439</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>80</v>
@@ -9520,7 +9675,7 @@
         <v>80</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>187</v>
+        <v>442</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>80</v>
@@ -9531,10 +9686,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>421</v>
+        <v>443</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>421</v>
+        <v>443</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9557,13 +9712,13 @@
         <v>80</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>422</v>
+        <v>198</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>423</v>
+        <v>220</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>424</v>
+        <v>221</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -9614,7 +9769,7 @@
         <v>80</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>421</v>
+        <v>201</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>78</v>
@@ -9626,13 +9781,13 @@
         <v>80</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>425</v>
+        <v>218</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>80</v>
@@ -9643,14 +9798,14 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>426</v>
+        <v>444</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>426</v>
+        <v>444</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>80</v>
+        <v>172</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
@@ -9669,16 +9824,16 @@
         <v>80</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>427</v>
+        <v>133</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>428</v>
+        <v>223</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>429</v>
+        <v>224</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>430</v>
+        <v>175</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
@@ -9728,7 +9883,7 @@
         <v>80</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>426</v>
+        <v>203</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>78</v>
@@ -9740,13 +9895,13 @@
         <v>80</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>431</v>
+        <v>218</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>80</v>
@@ -9757,44 +9912,46 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>432</v>
+        <v>445</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>432</v>
+        <v>445</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>80</v>
+        <v>226</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>183</v>
+        <v>133</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>433</v>
+        <v>227</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>434</v>
+        <v>228</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="O69" s="2"/>
+        <v>175</v>
+      </c>
+      <c r="O69" t="s" s="2">
+        <v>176</v>
+      </c>
       <c r="P69" t="s" s="2">
         <v>80</v>
       </c>
@@ -9842,25 +9999,25 @@
         <v>80</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>432</v>
+        <v>229</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>436</v>
+        <v>131</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>80</v>
@@ -9871,18 +10028,18 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>437</v>
+        <v>446</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>437</v>
+        <v>446</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>80</v>
+        <v>447</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>88</v>
@@ -9894,18 +10051,20 @@
         <v>80</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>165</v>
+        <v>448</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>189</v>
+        <v>449</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="N70" s="2"/>
+        <v>450</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>429</v>
+      </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
         <v>80</v>
@@ -9954,10 +10113,10 @@
         <v>80</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>168</v>
+        <v>446</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>88</v>
@@ -9966,38 +10125,38 @@
         <v>80</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>80</v>
+        <v>451</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>187</v>
+        <v>452</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>80</v>
+        <v>434</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>80</v>
+        <v>453</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>438</v>
+        <v>454</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>438</v>
+        <v>454</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
-        <v>133</v>
+        <v>80</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>80</v>
@@ -10009,17 +10168,15 @@
         <v>80</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>134</v>
+        <v>304</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>135</v>
+        <v>455</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>456</v>
+      </c>
+      <c r="N71" s="2"/>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
         <v>80</v>
@@ -10044,13 +10201,13 @@
         <v>80</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>80</v>
+        <v>457</v>
       </c>
       <c r="Z71" t="s" s="2">
-        <v>80</v>
+        <v>458</v>
       </c>
       <c r="AA71" t="s" s="2">
         <v>80</v>
@@ -10068,25 +10225,25 @@
         <v>80</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>174</v>
+        <v>454</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>187</v>
+        <v>218</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>80</v>
@@ -10097,46 +10254,42 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>439</v>
+        <v>459</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>439</v>
+        <v>459</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
-        <v>194</v>
+        <v>80</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>134</v>
+        <v>460</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>195</v>
+        <v>461</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="O72" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>462</v>
+      </c>
+      <c r="N72" s="2"/>
+      <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
         <v>80</v>
       </c>
@@ -10184,25 +10337,25 @@
         <v>80</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>197</v>
+        <v>459</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>131</v>
+        <v>463</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>80</v>
@@ -10213,10 +10366,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>440</v>
+        <v>464</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>440</v>
+        <v>464</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10227,7 +10380,7 @@
         <v>78</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>80</v>
@@ -10239,15 +10392,17 @@
         <v>80</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>146</v>
+        <v>465</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>441</v>
+        <v>466</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="N73" s="2"/>
+        <v>467</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>468</v>
+      </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
         <v>80</v>
@@ -10296,13 +10451,13 @@
         <v>80</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>440</v>
+        <v>464</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>80</v>
@@ -10314,21 +10469,21 @@
         <v>80</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>150</v>
+        <v>469</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>443</v>
+        <v>80</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>444</v>
+        <v>470</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>444</v>
+        <v>470</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10351,15 +10506,17 @@
         <v>80</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>445</v>
+        <v>214</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>446</v>
+        <v>471</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="N74" s="2"/>
+        <v>472</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>473</v>
+      </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
         <v>80</v>
@@ -10408,7 +10565,7 @@
         <v>80</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>444</v>
+        <v>470</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>78</v>
@@ -10426,7 +10583,7 @@
         <v>80</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>448</v>
+        <v>474</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>80</v>
@@ -10437,10 +10594,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>449</v>
+        <v>475</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>449</v>
+        <v>475</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10463,13 +10620,13 @@
         <v>80</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>269</v>
+        <v>198</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>450</v>
+        <v>220</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>451</v>
+        <v>221</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
@@ -10496,13 +10653,13 @@
         <v>80</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>452</v>
+        <v>80</v>
       </c>
       <c r="Z75" t="s" s="2">
-        <v>453</v>
+        <v>80</v>
       </c>
       <c r="AA75" t="s" s="2">
         <v>80</v>
@@ -10520,7 +10677,7 @@
         <v>80</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>449</v>
+        <v>201</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>78</v>
@@ -10532,38 +10689,38 @@
         <v>80</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>454</v>
+        <v>218</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>455</v>
+        <v>80</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>456</v>
+        <v>476</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>456</v>
+        <v>476</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
-        <v>80</v>
+        <v>172</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>80</v>
@@ -10575,15 +10732,17 @@
         <v>80</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>269</v>
+        <v>133</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>457</v>
+        <v>223</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="N76" s="2"/>
+        <v>224</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>175</v>
+      </c>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
         <v>80</v>
@@ -10608,13 +10767,13 @@
         <v>80</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>273</v>
+        <v>80</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>459</v>
+        <v>80</v>
       </c>
       <c r="Z76" t="s" s="2">
-        <v>460</v>
+        <v>80</v>
       </c>
       <c r="AA76" t="s" s="2">
         <v>80</v>
@@ -10632,43 +10791,43 @@
         <v>80</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>456</v>
+        <v>203</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>187</v>
+        <v>218</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>461</v>
+        <v>80</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>462</v>
+        <v>477</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>462</v>
+        <v>477</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
-        <v>80</v>
+        <v>226</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
@@ -10681,25 +10840,25 @@
         <v>80</v>
       </c>
       <c r="I77" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>269</v>
+        <v>133</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>463</v>
+        <v>227</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>464</v>
+        <v>228</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>465</v>
+        <v>175</v>
       </c>
       <c r="O77" t="s" s="2">
-        <v>466</v>
+        <v>176</v>
       </c>
       <c r="P77" t="s" s="2">
         <v>80</v>
@@ -10724,13 +10883,13 @@
         <v>80</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>273</v>
+        <v>80</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>467</v>
+        <v>80</v>
       </c>
       <c r="Z77" t="s" s="2">
-        <v>468</v>
+        <v>80</v>
       </c>
       <c r="AA77" t="s" s="2">
         <v>80</v>
@@ -10748,7 +10907,7 @@
         <v>80</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>462</v>
+        <v>229</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>78</v>
@@ -10760,27 +10919,27 @@
         <v>80</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>469</v>
+        <v>131</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>470</v>
+        <v>80</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>471</v>
+        <v>478</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>471</v>
+        <v>478</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -10791,7 +10950,7 @@
         <v>78</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>80</v>
@@ -10803,13 +10962,13 @@
         <v>80</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>269</v>
+        <v>179</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" s="2"/>
@@ -10836,13 +10995,13 @@
         <v>80</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>474</v>
+        <v>80</v>
       </c>
       <c r="Z78" t="s" s="2">
-        <v>475</v>
+        <v>80</v>
       </c>
       <c r="AA78" t="s" s="2">
         <v>80</v>
@@ -10860,13 +11019,13 @@
         <v>80</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>471</v>
+        <v>478</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>80</v>
@@ -10878,21 +11037,21 @@
         <v>80</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>476</v>
+        <v>183</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>477</v>
+        <v>481</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -10903,7 +11062,7 @@
         <v>78</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>80</v>
@@ -10915,13 +11074,13 @@
         <v>80</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>269</v>
+        <v>483</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -10948,37 +11107,37 @@
         <v>80</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>481</v>
+        <v>80</v>
       </c>
       <c r="Z79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF79" t="s" s="2">
         <v>482</v>
       </c>
-      <c r="AA79" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB79" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC79" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD79" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE79" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF79" t="s" s="2">
-        <v>478</v>
-      </c>
       <c r="AG79" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>80</v>
@@ -10990,21 +11149,21 @@
         <v>80</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>484</v>
+        <v>80</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11027,13 +11186,13 @@
         <v>80</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>445</v>
+        <v>304</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -11060,13 +11219,13 @@
         <v>80</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>80</v>
+        <v>490</v>
       </c>
       <c r="Z80" t="s" s="2">
-        <v>80</v>
+        <v>491</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>80</v>
@@ -11084,7 +11243,7 @@
         <v>80</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>78</v>
@@ -11102,21 +11261,21 @@
         <v>80</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>489</v>
+        <v>493</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11139,13 +11298,13 @@
         <v>80</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>269</v>
+        <v>304</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
@@ -11172,31 +11331,31 @@
         <v>80</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>273</v>
+        <v>308</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="Z81" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="AA81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF81" t="s" s="2">
         <v>494</v>
-      </c>
-      <c r="AA81" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB81" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC81" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD81" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE81" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF81" t="s" s="2">
-        <v>490</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>78</v>
@@ -11214,21 +11373,21 @@
         <v>80</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>495</v>
+        <v>218</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>496</v>
+        <v>499</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11251,18 +11410,20 @@
         <v>80</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>183</v>
+        <v>304</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="O82" s="2"/>
+        <v>503</v>
+      </c>
+      <c r="O82" t="s" s="2">
+        <v>504</v>
+      </c>
       <c r="P82" t="s" s="2">
         <v>80</v>
       </c>
@@ -11286,13 +11447,13 @@
         <v>80</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>80</v>
+        <v>308</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>80</v>
+        <v>505</v>
       </c>
       <c r="Z82" t="s" s="2">
-        <v>80</v>
+        <v>506</v>
       </c>
       <c r="AA82" t="s" s="2">
         <v>80</v>
@@ -11310,7 +11471,7 @@
         <v>80</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>78</v>
@@ -11328,21 +11489,21 @@
         <v>80</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>80</v>
+        <v>508</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>502</v>
+        <v>509</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>502</v>
+        <v>509</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11353,7 +11514,7 @@
         <v>78</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>80</v>
@@ -11365,13 +11526,13 @@
         <v>80</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>165</v>
+        <v>304</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>189</v>
+        <v>510</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>190</v>
+        <v>511</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" s="2"/>
@@ -11398,13 +11559,13 @@
         <v>80</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>80</v>
+        <v>512</v>
       </c>
       <c r="Z83" t="s" s="2">
-        <v>80</v>
+        <v>513</v>
       </c>
       <c r="AA83" t="s" s="2">
         <v>80</v>
@@ -11422,43 +11583,43 @@
         <v>80</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>168</v>
+        <v>509</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI83" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>187</v>
+        <v>514</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>80</v>
+        <v>515</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>503</v>
+        <v>516</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>503</v>
+        <v>516</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
-        <v>133</v>
+        <v>80</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
@@ -11477,17 +11638,15 @@
         <v>80</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>134</v>
+        <v>304</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>135</v>
+        <v>517</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>518</v>
+      </c>
+      <c r="N84" s="2"/>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
         <v>80</v>
@@ -11512,13 +11671,13 @@
         <v>80</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>80</v>
+        <v>519</v>
       </c>
       <c r="Z84" t="s" s="2">
-        <v>80</v>
+        <v>520</v>
       </c>
       <c r="AA84" t="s" s="2">
         <v>80</v>
@@ -11536,7 +11695,7 @@
         <v>80</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>174</v>
+        <v>516</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>78</v>
@@ -11548,63 +11707,59 @@
         <v>80</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>187</v>
+        <v>521</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>80</v>
+        <v>522</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>504</v>
+        <v>523</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>504</v>
+        <v>523</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
-        <v>194</v>
+        <v>80</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I85" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>134</v>
+        <v>483</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>195</v>
+        <v>524</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="O85" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>525</v>
+      </c>
+      <c r="N85" s="2"/>
+      <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
         <v>80</v>
       </c>
@@ -11652,39 +11807,39 @@
         <v>80</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>197</v>
+        <v>523</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>131</v>
+        <v>526</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>80</v>
+        <v>527</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>505</v>
+        <v>528</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>505</v>
+        <v>528</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -11692,7 +11847,7 @@
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G86" t="s" s="2">
         <v>88</v>
@@ -11707,13 +11862,13 @@
         <v>80</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>506</v>
+        <v>304</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>507</v>
+        <v>529</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>508</v>
+        <v>530</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" s="2"/>
@@ -11740,13 +11895,13 @@
         <v>80</v>
       </c>
       <c r="X86" t="s" s="2">
-        <v>80</v>
+        <v>308</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>80</v>
+        <v>531</v>
       </c>
       <c r="Z86" t="s" s="2">
-        <v>80</v>
+        <v>532</v>
       </c>
       <c r="AA86" t="s" s="2">
         <v>80</v>
@@ -11764,10 +11919,10 @@
         <v>80</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>505</v>
+        <v>528</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH86" t="s" s="2">
         <v>88</v>
@@ -11779,24 +11934,24 @@
         <v>100</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>509</v>
+        <v>80</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>363</v>
+        <v>533</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>510</v>
+        <v>80</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>511</v>
+        <v>534</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>512</v>
+        <v>535</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>512</v>
+        <v>535</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -11807,7 +11962,7 @@
         <v>78</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>80</v>
@@ -11819,16 +11974,16 @@
         <v>80</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>108</v>
+        <v>214</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>513</v>
+        <v>536</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>514</v>
+        <v>537</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>515</v>
+        <v>538</v>
       </c>
       <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
@@ -11854,13 +12009,13 @@
         <v>80</v>
       </c>
       <c r="X87" t="s" s="2">
-        <v>157</v>
+        <v>80</v>
       </c>
       <c r="Y87" t="s" s="2">
-        <v>516</v>
+        <v>80</v>
       </c>
       <c r="Z87" t="s" s="2">
-        <v>517</v>
+        <v>80</v>
       </c>
       <c r="AA87" t="s" s="2">
         <v>80</v>
@@ -11878,13 +12033,13 @@
         <v>80</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>512</v>
+        <v>535</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI87" t="s" s="2">
         <v>80</v>
@@ -11896,7 +12051,7 @@
         <v>80</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>518</v>
+        <v>539</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>80</v>
@@ -11907,10 +12062,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>519</v>
+        <v>540</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>519</v>
+        <v>540</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -11933,17 +12088,15 @@
         <v>80</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>269</v>
+        <v>198</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>520</v>
+        <v>220</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="N88" t="s" s="2">
-        <v>522</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="N88" s="2"/>
       <c r="O88" s="2"/>
       <c r="P88" t="s" s="2">
         <v>80</v>
@@ -11968,13 +12121,13 @@
         <v>80</v>
       </c>
       <c r="X88" t="s" s="2">
-        <v>273</v>
+        <v>80</v>
       </c>
       <c r="Y88" t="s" s="2">
-        <v>523</v>
+        <v>80</v>
       </c>
       <c r="Z88" t="s" s="2">
-        <v>524</v>
+        <v>80</v>
       </c>
       <c r="AA88" t="s" s="2">
         <v>80</v>
@@ -11992,7 +12145,7 @@
         <v>80</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>519</v>
+        <v>201</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>78</v>
@@ -12004,13 +12157,13 @@
         <v>80</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>80</v>
+        <v>218</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>80</v>
@@ -12021,10 +12174,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>525</v>
+        <v>541</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>525</v>
+        <v>541</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12035,7 +12188,7 @@
         <v>78</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H89" t="s" s="2">
         <v>80</v>
@@ -12047,13 +12200,13 @@
         <v>80</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>200</v>
+        <v>133</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>526</v>
+        <v>134</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>527</v>
+        <v>135</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" s="2"/>
@@ -12092,37 +12245,35 @@
         <v>80</v>
       </c>
       <c r="AB89" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC89" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="AC89" s="2"/>
       <c r="AD89" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>525</v>
+        <v>203</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH89" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI89" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK89" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>356</v>
+        <v>80</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>80</v>
@@ -12133,12 +12284,14 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>528</v>
+        <v>542</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>528</v>
-      </c>
-      <c r="C90" s="2"/>
+        <v>541</v>
+      </c>
+      <c r="C90" t="s" s="2">
+        <v>543</v>
+      </c>
       <c r="D90" t="s" s="2">
         <v>80</v>
       </c>
@@ -12159,15 +12312,17 @@
         <v>80</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>529</v>
+        <v>544</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>530</v>
+        <v>545</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>531</v>
-      </c>
-      <c r="N90" s="2"/>
+        <v>546</v>
+      </c>
+      <c r="N90" t="s" s="2">
+        <v>547</v>
+      </c>
       <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
         <v>80</v>
@@ -12216,73 +12371,75 @@
         <v>80</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>528</v>
+        <v>203</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH90" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>80</v>
+        <v>146</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>362</v>
+        <v>80</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>532</v>
+        <v>80</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>533</v>
+        <v>80</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>534</v>
+        <v>548</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>534</v>
+        <v>548</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
-        <v>80</v>
+        <v>226</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G91" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H91" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I91" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>535</v>
+        <v>133</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>536</v>
+        <v>227</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>537</v>
+        <v>228</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>538</v>
-      </c>
-      <c r="O91" s="2"/>
+        <v>175</v>
+      </c>
+      <c r="O91" t="s" s="2">
+        <v>176</v>
+      </c>
       <c r="P91" t="s" s="2">
         <v>80</v>
       </c>
@@ -12330,30 +12487,708 @@
         <v>80</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>534</v>
+        <v>229</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ91" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AK91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL91" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="AM91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN91" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="B92" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="C92" s="2"/>
+      <c r="D92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E92" s="2"/>
+      <c r="F92" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="AI91" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ91" t="s" s="2">
+      <c r="G92" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K92" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="L92" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="M92" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="N92" s="2"/>
+      <c r="O92" s="2"/>
+      <c r="P92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q92" s="2"/>
+      <c r="R92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF92" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="AG92" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH92" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ92" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AK91" t="s" s="2">
-        <v>539</v>
-      </c>
-      <c r="AL91" t="s" s="2">
-        <v>540</v>
-      </c>
-      <c r="AM91" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN91" t="s" s="2">
+      <c r="AK92" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="AL92" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="AM92" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="AN92" t="s" s="2">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="B93" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="C93" s="2"/>
+      <c r="D93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E93" s="2"/>
+      <c r="F93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G93" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K93" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="L93" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="M93" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="N93" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="O93" s="2"/>
+      <c r="P93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q93" s="2"/>
+      <c r="R93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X93" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="Y93" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="Z93" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="AA93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF93" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="AG93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH93" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ93" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL93" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="AM93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN93" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="B94" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="C94" s="2"/>
+      <c r="D94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E94" s="2"/>
+      <c r="F94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G94" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K94" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="L94" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="M94" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="N94" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="O94" s="2"/>
+      <c r="P94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q94" s="2"/>
+      <c r="R94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X94" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="Y94" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="Z94" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="AA94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF94" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="AG94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH94" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ94" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN94" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="B95" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="C95" s="2"/>
+      <c r="D95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E95" s="2"/>
+      <c r="F95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G95" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K95" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="L95" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="M95" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="N95" s="2"/>
+      <c r="O95" s="2"/>
+      <c r="P95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q95" s="2"/>
+      <c r="R95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF95" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="AG95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH95" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ95" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL95" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="AM95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN95" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="B96" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="C96" s="2"/>
+      <c r="D96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E96" s="2"/>
+      <c r="F96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G96" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K96" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="L96" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="M96" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="N96" s="2"/>
+      <c r="O96" s="2"/>
+      <c r="P96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q96" s="2"/>
+      <c r="R96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF96" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="AG96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH96" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ96" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK96" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="AL96" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="AM96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN96" t="s" s="2">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="B97" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="C97" s="2"/>
+      <c r="D97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E97" s="2"/>
+      <c r="F97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G97" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K97" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="L97" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="M97" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="N97" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="O97" s="2"/>
+      <c r="P97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q97" s="2"/>
+      <c r="R97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF97" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="AG97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH97" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ97" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK97" t="s" s="2">
+        <v>582</v>
+      </c>
+      <c r="AL97" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="AM97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN97" t="s" s="2">
         <v>80</v>
       </c>
     </row>

--- a/StructureDefinition-profile-EncounterHistory-for-Encounter.xlsx
+++ b/StructureDefinition-profile-EncounterHistory-for-Encounter.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3506" uniqueCount="584">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3506" uniqueCount="585">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T22:05:43.0956825-06:00</t>
+    <t>2026-02-17T14:42:26.7980652-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -466,7 +466,7 @@
     <t>The subjectStatus value can be used to track the patient's status within the encounter. It details whether the patient has arrived or departed, has been triaged or is currently in a waiting status.</t>
   </si>
   <si>
-    <t>Element `EncounterHistory.subjectStatus` is will have a context of Encounter based on following the parent source element upwards and mapping to `Encounter`.</t>
+    <t>Element `EncounterHistory.subjectStatus` has a context of Encounter based on following the parent source element upwards and mapping to `Encounter`.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -489,7 +489,7 @@
     <t>The start and end time associated with this set of values associated with the encounter, may be different to the planned times for various reasons.</t>
   </si>
   <si>
-    <t>Element `EncounterHistory.actualPeriod` is will have a context of Encounter based on following the parent source element upwards and mapping to `Encounter`.</t>
+    <t>Element `EncounterHistory.actualPeriod` has a context of Encounter based on following the parent source element upwards and mapping to `Encounter`.</t>
   </si>
   <si>
     <t>Encounter.extension:plannedStartDate</t>
@@ -508,7 +508,7 @@
     <t>The planned start date/time (or admission date) of the encounter.</t>
   </si>
   <si>
-    <t>Element `EncounterHistory.plannedStartDate` is will have a context of Encounter based on following the parent source element upwards and mapping to `Encounter`.</t>
+    <t>Element `EncounterHistory.plannedStartDate` has a context of Encounter based on following the parent source element upwards and mapping to `Encounter`.</t>
   </si>
   <si>
     <t>Encounter.extension:plannedEndDate</t>
@@ -527,7 +527,7 @@
     <t>The planned end date/time (or discharge date) of the encounter.</t>
   </si>
   <si>
-    <t>Element `EncounterHistory.plannedEndDate` is will have a context of Encounter based on following the parent source element upwards and mapping to `Encounter`.</t>
+    <t>Element `EncounterHistory.plannedEndDate` has a context of Encounter based on following the parent source element upwards and mapping to `Encounter`.</t>
   </si>
   <si>
     <t>Encounter.extension:encounter</t>
@@ -547,7 +547,7 @@
   </si>
   <si>
     <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `EncounterHistory.encounter` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `EncounterHistory.encounter` is will have a context of Encounter based on following the parent source element upwards and mapping to `Encounter`.</t>
+Element `EncounterHistory.encounter` has a context of Encounter based on following the parent source element upwards and mapping to `Encounter`.</t>
   </si>
   <si>
     <t>Encounter.modifierExtension</t>
@@ -670,7 +670,7 @@
   </si>
   <si>
     <t>Note that the target element context `Encounter.status` is a modifier element, so this extension does not need to be defined as a modifier.
-Element `EncounterHistory.status` is mapped to FHIR R4 element `Encounter.status`.</t>
+Element `EncounterHistory.status` has is mapped to FHIR R4 element `Encounter.status`, but has no comparisons.</t>
   </si>
   <si>
     <t>Encounter.status.value</t>
@@ -805,7 +805,7 @@
     <t>Cross-version extension for EncounterHistory.class from R5 for use in FHIR R4</t>
   </si>
   <si>
-    <t>Element `EncounterHistory.class` is mapped to FHIR R4 element `Encounter.class`.</t>
+    <t>Element `EncounterHistory.class` has is mapped to FHIR R4 element `Encounter.class`, but has no comparisons.</t>
   </si>
   <si>
     <t>Encounter.class.system</t>
@@ -1030,7 +1030,7 @@
     <t>Cross-version extension for EncounterHistory.serviceType from R5 for use in FHIR R4</t>
   </si>
   <si>
-    <t>Element `EncounterHistory.serviceType` is mapped to FHIR R4 element `Encounter.serviceType`.</t>
+    <t>Element `EncounterHistory.serviceType` has is mapped to FHIR R4 element `Encounter.serviceType`, but has no comparisons.</t>
   </si>
   <si>
     <t>Encounter.serviceType.coding</t>
@@ -1695,23 +1695,23 @@
     <t>Encounter.location.extension</t>
   </si>
   <si>
-    <t>Encounter.location.extension:form</t>
-  </si>
-  <si>
-    <t>form</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-EncounterHistory.location.form|0.0.1-snapshot-3}
+    <t>Encounter.location.extension:location</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-EncounterHistory.location|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
-    <t>Cross-version extension for EncounterHistory.location.form from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>This will be used to specify the required levels (bed/ward/room/etc.) desired to be recorded to simplify either messaging or query.</t>
-  </si>
-  <si>
-    <t>Element `EncounterHistory.location.form` is will have a context of Encounter.location based on following the parent source element upwards and mapping to `Encounter`.</t>
+    <t>Cross-version extension for EncounterHistory.location from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>The location of the patient at this point in the encounter, the multiple cardinality permits de-normalizing the levels of the location hierarchy, such as site/ward/room/bed.</t>
+  </si>
+  <si>
+    <t>Element `EncounterHistory.location` has is mapped to FHIR R4 element `Encounter.location`, but has no comparisons.</t>
   </si>
   <si>
     <t>Encounter.location.modifierExtension</t>
@@ -1764,6 +1764,9 @@
   </si>
   <si>
     <t>The physical type of the location (usually the level in the location hierachy - bed room ward etc.)</t>
+  </si>
+  <si>
+    <t>This will be used to specify the required levels (bed/ward/room/etc.) desired to be recorded to simplify either messaging or query.</t>
   </si>
   <si>
     <t>This information is de-normalized from the Location resource to support the easier understanding of the encounter resource and processing in messaging or query.
@@ -12300,7 +12303,7 @@
         <v>78</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H90" t="s" s="2">
         <v>80</v>
@@ -12774,10 +12777,10 @@
         <v>564</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>546</v>
+        <v>565</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="O94" s="2"/>
       <c r="P94" t="s" s="2">
@@ -12806,10 +12809,10 @@
         <v>308</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="Z94" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="AA94" t="s" s="2">
         <v>80</v>
@@ -12856,10 +12859,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -12885,10 +12888,10 @@
         <v>232</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" s="2"/>
@@ -12939,7 +12942,7 @@
         <v>80</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>78</v>
@@ -12968,10 +12971,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -12994,13 +12997,13 @@
         <v>80</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="N96" s="2"/>
       <c r="O96" s="2"/>
@@ -13051,7 +13054,7 @@
         <v>80</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>78</v>
@@ -13069,21 +13072,21 @@
         <v>400</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="AM96" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -13106,16 +13109,16 @@
         <v>80</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="O97" s="2"/>
       <c r="P97" t="s" s="2">
@@ -13165,7 +13168,7 @@
         <v>80</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>78</v>
@@ -13180,10 +13183,10 @@
         <v>100</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="AM97" t="s" s="2">
         <v>80</v>

--- a/StructureDefinition-profile-EncounterHistory-for-Encounter.xlsx
+++ b/StructureDefinition-profile-EncounterHistory-for-Encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T14:42:26.7980652-06:00</t>
+    <t>2026-02-20T11:59:20.7969526-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Encounter|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Encounter</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -456,7 +456,7 @@
     <t>subjectStatus</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-EncounterHistory.subjectStatus|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-EncounterHistory.subjectStatus}
 </t>
   </si>
   <si>
@@ -479,7 +479,7 @@
     <t>actualPeriod</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-EncounterHistory.actualPeriod|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-EncounterHistory.actualPeriod}
 </t>
   </si>
   <si>
@@ -498,7 +498,7 @@
     <t>plannedStartDate</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-EncounterHistory.plannedStartDate|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-EncounterHistory.plannedStartDate}
 </t>
   </si>
   <si>
@@ -517,7 +517,7 @@
     <t>plannedEndDate</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-EncounterHistory.plannedEndDate|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-EncounterHistory.plannedEndDate}
 </t>
   </si>
   <si>
@@ -536,7 +536,7 @@
     <t>encounter</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {alternate-reference|5.2.0}
+    <t xml:space="preserve">Extension {alternate-reference}
 </t>
   </si>
   <si>
@@ -659,7 +659,7 @@
     <t>status</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-EncounterHistory.status|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-EncounterHistory.status}
 </t>
   </si>
   <si>
@@ -771,7 +771,7 @@
     <t>Classification of the encounter.</t>
   </si>
   <si>
-    <t>http://terminology.hl7.org/ValueSet/v3-ActEncounterCode|3.0.0</t>
+    <t>http://terminology.hl7.org/ValueSet/v3-ActEncounterCode</t>
   </si>
   <si>
     <t>.inboundRelationship[typeCode=SUBJ].source[classCode=LIST].code</t>
@@ -798,7 +798,7 @@
     <t>class</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-EncounterHistory.class|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-EncounterHistory.class}
 </t>
   </si>
   <si>
@@ -1023,7 +1023,7 @@
     <t>serviceType</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-EncounterHistory.serviceType|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-EncounterHistory.serviceType}
 </t>
   </si>
   <si>
@@ -1090,7 +1090,7 @@
     <t>Indicates the urgency of the encounter.</t>
   </si>
   <si>
-    <t>http://terminology.hl7.org/ValueSet/v3-ActPriority|3.0.0</t>
+    <t>http://terminology.hl7.org/ValueSet/v3-ActPriority</t>
   </si>
   <si>
     <t>.priorityCode</t>
@@ -1563,7 +1563,7 @@
     <t>The reason for re-admission of this hospitalization encounter.</t>
   </si>
   <si>
-    <t>http://terminology.hl7.org/ValueSet/v2-0092|2.0.0</t>
+    <t>http://terminology.hl7.org/ValueSet/v2-0092</t>
   </si>
   <si>
     <t>PV1-13</t>
@@ -1701,7 +1701,7 @@
     <t>location</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-EncounterHistory.location|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-EncounterHistory.location}
 </t>
   </si>
   <si>
@@ -2154,7 +2154,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="96.79296875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="83.91796875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-profile-EncounterHistory-for-Encounter.xlsx
+++ b/StructureDefinition-profile-EncounterHistory-for-Encounter.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3506" uniqueCount="585">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3469" uniqueCount="578">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T11:59:20.7969526-06:00</t>
+    <t>2026-02-21T13:36:54.212069-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Encounter</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Encounter|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -456,7 +456,7 @@
     <t>subjectStatus</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-EncounterHistory.subjectStatus}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-EncounterHistory.subjectStatus|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -479,7 +479,7 @@
     <t>actualPeriod</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-EncounterHistory.actualPeriod}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-EncounterHistory.actualPeriod|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -498,7 +498,7 @@
     <t>plannedStartDate</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-EncounterHistory.plannedStartDate}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-EncounterHistory.plannedStartDate|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -517,7 +517,7 @@
     <t>plannedEndDate</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-EncounterHistory.plannedEndDate}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-EncounterHistory.plannedEndDate|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -528,26 +528,6 @@
   </si>
   <si>
     <t>Element `EncounterHistory.plannedEndDate` has a context of Encounter based on following the parent source element upwards and mapping to `Encounter`.</t>
-  </si>
-  <si>
-    <t>Encounter.extension:encounter</t>
-  </si>
-  <si>
-    <t>encounter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {alternate-reference}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for EncounterHistory.encounter from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/Encounter in FHIR R4</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `EncounterHistory.encounter` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `EncounterHistory.encounter` has a context of Encounter based on following the parent source element upwards and mapping to `Encounter`.</t>
   </si>
   <si>
     <t>Encounter.modifierExtension</t>
@@ -659,7 +639,7 @@
     <t>status</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-EncounterHistory.status}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-EncounterHistory.status|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -670,7 +650,7 @@
   </si>
   <si>
     <t>Note that the target element context `Encounter.status` is a modifier element, so this extension does not need to be defined as a modifier.
-Element `EncounterHistory.status` has is mapped to FHIR R4 element `Encounter.status`, but has no comparisons.</t>
+Element `EncounterHistory.status` is mapped to FHIR R4 element `Encounter.status` as `SourceIsBroaderThanTarget`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.</t>
   </si>
   <si>
     <t>Encounter.status.value</t>
@@ -771,7 +751,7 @@
     <t>Classification of the encounter.</t>
   </si>
   <si>
-    <t>http://terminology.hl7.org/ValueSet/v3-ActEncounterCode</t>
+    <t>http://terminology.hl7.org/ValueSet/v3-ActEncounterCode|3.0.0</t>
   </si>
   <si>
     <t>.inboundRelationship[typeCode=SUBJ].source[classCode=LIST].code</t>
@@ -798,14 +778,14 @@
     <t>class</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-EncounterHistory.class}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-EncounterHistory.class|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
     <t>Cross-version extension for EncounterHistory.class from R5 for use in FHIR R4</t>
   </si>
   <si>
-    <t>Element `EncounterHistory.class` has is mapped to FHIR R4 element `Encounter.class`, but has no comparisons.</t>
+    <t>Element `EncounterHistory.class` is mapped to FHIR R4 element `Encounter.class` as `SourceIsBroaderThanTarget`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.</t>
   </si>
   <si>
     <t>Encounter.class.system</t>
@@ -1023,14 +1003,14 @@
     <t>serviceType</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-EncounterHistory.serviceType}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-EncounterHistory.serviceType|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
     <t>Cross-version extension for EncounterHistory.serviceType from R5 for use in FHIR R4</t>
   </si>
   <si>
-    <t>Element `EncounterHistory.serviceType` has is mapped to FHIR R4 element `Encounter.serviceType`, but has no comparisons.</t>
+    <t>Element `EncounterHistory.serviceType` is mapped to FHIR R4 element `Encounter.serviceType` as `SourceIsBroaderThanTarget`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.</t>
   </si>
   <si>
     <t>Encounter.serviceType.coding</t>
@@ -1090,7 +1070,7 @@
     <t>Indicates the urgency of the encounter.</t>
   </si>
   <si>
-    <t>http://terminology.hl7.org/ValueSet/v3-ActPriority</t>
+    <t>http://terminology.hl7.org/ValueSet/v3-ActPriority|3.0.0</t>
   </si>
   <si>
     <t>.priorityCode</t>
@@ -1563,7 +1543,7 @@
     <t>The reason for re-admission of this hospitalization encounter.</t>
   </si>
   <si>
-    <t>http://terminology.hl7.org/ValueSet/v2-0092</t>
+    <t>http://terminology.hl7.org/ValueSet/v2-0092|2.0.0</t>
   </si>
   <si>
     <t>PV1-13</t>
@@ -1695,23 +1675,23 @@
     <t>Encounter.location.extension</t>
   </si>
   <si>
-    <t>Encounter.location.extension:location</t>
-  </si>
-  <si>
-    <t>location</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-EncounterHistory.location}
+    <t>Encounter.location.extension:form</t>
+  </si>
+  <si>
+    <t>form</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-EncounterHistory.location.form|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
-    <t>Cross-version extension for EncounterHistory.location from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>The location of the patient at this point in the encounter, the multiple cardinality permits de-normalizing the levels of the location hierarchy, such as site/ward/room/bed.</t>
-  </si>
-  <si>
-    <t>Element `EncounterHistory.location` has is mapped to FHIR R4 element `Encounter.location`, but has no comparisons.</t>
+    <t>Cross-version extension for EncounterHistory.location.form from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>This will be used to specify the required levels (bed/ward/room/etc.) desired to be recorded to simplify either messaging or query.</t>
+  </si>
+  <si>
+    <t>Element `EncounterHistory.location.form` has a context of Encounter.location based on following the parent source element upwards and mapping to `Encounter`.</t>
   </si>
   <si>
     <t>Encounter.location.modifierExtension</t>
@@ -1764,9 +1744,6 @@
   </si>
   <si>
     <t>The physical type of the location (usually the level in the location hierachy - bed room ward etc.)</t>
-  </si>
-  <si>
-    <t>This will be used to specify the required levels (bed/ward/room/etc.) desired to be recorded to simplify either messaging or query.</t>
   </si>
   <si>
     <t>This information is de-normalized from the Location resource to support the easier understanding of the encounter resource and processing in messaging or query.
@@ -2135,7 +2112,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN97"/>
+  <dimension ref="A1:AN96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2154,7 +2131,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="83.91796875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="96.79296875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -3680,43 +3657,43 @@
         <v>165</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="C14" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" t="s" s="2">
         <v>166</v>
-      </c>
-      <c r="D14" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J14" t="s" s="2">
         <v>80</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="M14" t="s" s="2">
+      <c r="N14" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="N14" t="s" s="2">
+      <c r="O14" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>80</v>
       </c>
@@ -3764,7 +3741,7 @@
         <v>80</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>138</v>
+        <v>171</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -3782,7 +3759,7 @@
         <v>80</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>80</v>
+        <v>131</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>80</v>
@@ -3793,14 +3770,14 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>172</v>
+        <v>80</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
@@ -3813,26 +3790,22 @@
         <v>80</v>
       </c>
       <c r="I15" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J15" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="J15" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="K15" t="s" s="2">
-        <v>133</v>
+        <v>173</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="N15" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="O15" t="s" s="2">
-        <v>176</v>
-      </c>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>80</v>
       </c>
@@ -3880,7 +3853,7 @@
         <v>80</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>78</v>
@@ -3892,27 +3865,27 @@
         <v>80</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>80</v>
+        <v>176</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>131</v>
+        <v>177</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>80</v>
+        <v>178</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>80</v>
+        <v>179</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3920,30 +3893,32 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J16" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>179</v>
+        <v>108</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="N16" s="2"/>
+        <v>182</v>
+      </c>
+      <c r="N16" t="s" s="2">
+        <v>183</v>
+      </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>80</v>
@@ -3968,13 +3943,13 @@
         <v>80</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>80</v>
+        <v>184</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>80</v>
+        <v>185</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>80</v>
+        <v>186</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>80</v>
@@ -3992,13 +3967,13 @@
         <v>80</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>80</v>
@@ -4007,24 +3982,24 @@
         <v>100</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -4032,7 +4007,7 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>88</v>
@@ -4041,23 +4016,21 @@
         <v>80</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>108</v>
+        <v>192</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>189</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>80</v>
@@ -4082,13 +4055,13 @@
         <v>80</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>190</v>
+        <v>80</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>191</v>
+        <v>80</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>192</v>
+        <v>80</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>80</v>
@@ -4106,10 +4079,10 @@
         <v>80</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>88</v>
@@ -4118,27 +4091,27 @@
         <v>80</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>193</v>
+        <v>80</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>194</v>
+        <v>80</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>195</v>
+        <v>80</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>196</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4146,10 +4119,10 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>80</v>
@@ -4161,13 +4134,13 @@
         <v>80</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>198</v>
+        <v>133</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>199</v>
+        <v>134</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>200</v>
+        <v>135</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -4206,31 +4179,29 @@
         <v>80</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC18" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="AC18" s="2"/>
       <c r="AD18" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>80</v>
@@ -4247,12 +4218,14 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="C19" s="2"/>
+        <v>196</v>
+      </c>
+      <c r="C19" t="s" s="2">
+        <v>199</v>
+      </c>
       <c r="D19" t="s" s="2">
         <v>80</v>
       </c>
@@ -4261,7 +4234,7 @@
         <v>88</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>80</v>
@@ -4273,15 +4246,17 @@
         <v>80</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>133</v>
+        <v>200</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>134</v>
+        <v>201</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="N19" s="2"/>
+        <v>202</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>203</v>
+      </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>80</v>
@@ -4318,17 +4293,19 @@
         <v>80</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AC19" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="AD19" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
@@ -4337,7 +4314,7 @@
         <v>79</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>80</v>
+        <v>146</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>139</v>
@@ -4360,17 +4337,15 @@
         <v>204</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="C20" t="s" s="2">
-        <v>205</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
         <v>80</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>88</v>
@@ -4385,17 +4360,15 @@
         <v>80</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>209</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>80</v>
@@ -4444,19 +4417,19 @@
         <v>80</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>139</v>
+        <v>80</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>80</v>
@@ -4473,10 +4446,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4487,7 +4460,7 @@
         <v>78</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>80</v>
@@ -4499,15 +4472,17 @@
         <v>80</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="L21" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="N21" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="M21" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>80</v>
@@ -4556,25 +4531,25 @@
         <v>80</v>
       </c>
       <c r="AF21" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AG21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI21" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK21" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL21" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="AG21" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH21" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI21" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ21" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK21" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL21" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>80</v>
@@ -4599,7 +4574,7 @@
         <v>78</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>80</v>
@@ -4611,17 +4586,15 @@
         <v>80</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="M22" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>217</v>
-      </c>
+      <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>80</v>
@@ -4670,25 +4643,25 @@
         <v>80</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>80</v>
@@ -4699,21 +4672,21 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>80</v>
+        <v>166</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>80</v>
@@ -4725,15 +4698,17 @@
         <v>80</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>198</v>
+        <v>133</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="N23" s="2"/>
+        <v>218</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>169</v>
+      </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>80</v>
@@ -4782,25 +4757,25 @@
         <v>80</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>80</v>
@@ -4811,14 +4786,14 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>172</v>
+        <v>220</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
@@ -4831,24 +4806,26 @@
         <v>80</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K24" t="s" s="2">
         <v>133</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="O24" s="2"/>
+        <v>169</v>
+      </c>
+      <c r="O24" t="s" s="2">
+        <v>170</v>
+      </c>
       <c r="P24" t="s" s="2">
         <v>80</v>
       </c>
@@ -4896,7 +4873,7 @@
         <v>80</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>203</v>
+        <v>223</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
@@ -4914,7 +4891,7 @@
         <v>80</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>218</v>
+        <v>131</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>80</v>
@@ -4925,46 +4902,42 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>226</v>
+        <v>80</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>133</v>
+        <v>108</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>227</v>
+        <v>181</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>176</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>80</v>
       </c>
@@ -4988,13 +4961,13 @@
         <v>80</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>80</v>
+        <v>184</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>80</v>
+        <v>185</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>80</v>
+        <v>186</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>80</v>
@@ -5012,25 +4985,25 @@
         <v>80</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>131</v>
+        <v>212</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>80</v>
@@ -5041,10 +5014,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5067,13 +5040,13 @@
         <v>80</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>108</v>
+        <v>226</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>187</v>
+        <v>227</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>188</v>
+        <v>228</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -5100,13 +5073,13 @@
         <v>80</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>190</v>
+        <v>80</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>191</v>
+        <v>80</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>192</v>
+        <v>80</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>80</v>
@@ -5124,7 +5097,7 @@
         <v>80</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>88</v>
@@ -5142,7 +5115,7 @@
         <v>80</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>80</v>
@@ -5153,10 +5126,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5176,16 +5149,16 @@
         <v>80</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="L27" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>234</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -5212,13 +5185,13 @@
         <v>80</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>80</v>
+        <v>233</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>80</v>
+        <v>234</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>80</v>
+        <v>235</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>80</v>
@@ -5236,7 +5209,7 @@
         <v>80</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>88</v>
@@ -5254,21 +5227,21 @@
         <v>80</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>218</v>
+        <v>236</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>80</v>
+        <v>237</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>80</v>
+        <v>238</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5276,7 +5249,7 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>88</v>
@@ -5288,16 +5261,16 @@
         <v>80</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>236</v>
+        <v>192</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>237</v>
+        <v>214</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>238</v>
+        <v>215</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -5324,13 +5297,13 @@
         <v>80</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>239</v>
+        <v>80</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>240</v>
+        <v>80</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>241</v>
+        <v>80</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>80</v>
@@ -5348,10 +5321,10 @@
         <v>80</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>235</v>
+        <v>195</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>88</v>
@@ -5360,27 +5333,27 @@
         <v>80</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>242</v>
+        <v>212</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>243</v>
+        <v>80</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>244</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5388,10 +5361,10 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>80</v>
@@ -5403,13 +5376,13 @@
         <v>80</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>198</v>
+        <v>133</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>220</v>
+        <v>134</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>221</v>
+        <v>135</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -5448,37 +5421,37 @@
         <v>80</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>80</v>
+        <v>136</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>80</v>
+        <v>241</v>
       </c>
       <c r="AD29" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>218</v>
+        <v>80</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>80</v>
@@ -5489,12 +5462,14 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="C30" s="2"/>
+        <v>240</v>
+      </c>
+      <c r="C30" t="s" s="2">
+        <v>243</v>
+      </c>
       <c r="D30" t="s" s="2">
         <v>80</v>
       </c>
@@ -5503,7 +5478,7 @@
         <v>88</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>80</v>
@@ -5515,15 +5490,17 @@
         <v>80</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>133</v>
+        <v>244</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>134</v>
+        <v>245</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="N30" s="2"/>
+        <v>232</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>246</v>
+      </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>80</v>
@@ -5560,19 +5537,19 @@
         <v>80</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>136</v>
+        <v>80</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>247</v>
+        <v>80</v>
       </c>
       <c r="AD30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
@@ -5601,20 +5578,18 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="C31" t="s" s="2">
-        <v>249</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
         <v>80</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>88</v>
@@ -5626,21 +5601,23 @@
         <v>80</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="L31" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="N31" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="O31" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="M31" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>80</v>
       </c>
@@ -5688,39 +5665,39 @@
         <v>80</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>203</v>
+        <v>252</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>80</v>
+        <v>253</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>80</v>
+        <v>254</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5743,20 +5720,18 @@
         <v>89</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>102</v>
+        <v>192</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>257</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>80</v>
       </c>
@@ -5804,7 +5779,7 @@
         <v>80</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
@@ -5822,21 +5797,21 @@
         <v>80</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5859,18 +5834,18 @@
         <v>89</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>198</v>
+        <v>108</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="N33" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="O33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" t="s" s="2">
+        <v>265</v>
+      </c>
       <c r="P33" t="s" s="2">
         <v>80</v>
       </c>
@@ -5918,7 +5893,7 @@
         <v>80</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
@@ -5936,21 +5911,21 @@
         <v>80</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5973,17 +5948,17 @@
         <v>89</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>108</v>
+        <v>192</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>80</v>
@@ -6032,7 +6007,7 @@
         <v>80</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
@@ -6050,21 +6025,21 @@
         <v>80</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6087,17 +6062,19 @@
         <v>89</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>198</v>
+        <v>277</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="N35" s="2"/>
+        <v>279</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>280</v>
+      </c>
       <c r="O35" t="s" s="2">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>80</v>
@@ -6146,7 +6123,7 @@
         <v>80</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
@@ -6164,21 +6141,21 @@
         <v>80</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>281</v>
+        <v>284</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6189,7 +6166,7 @@
         <v>78</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>80</v>
@@ -6198,23 +6175,19 @@
         <v>80</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>283</v>
+        <v>208</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="O36" t="s" s="2">
         <v>287</v>
       </c>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>80</v>
       </c>
@@ -6262,13 +6235,13 @@
         <v>80</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>80</v>
@@ -6280,21 +6253,21 @@
         <v>80</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>289</v>
+        <v>212</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>290</v>
+        <v>80</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6305,7 +6278,7 @@
         <v>78</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>80</v>
@@ -6317,13 +6290,13 @@
         <v>80</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="L37" t="s" s="2">
-        <v>292</v>
-      </c>
       <c r="M37" t="s" s="2">
-        <v>293</v>
+        <v>215</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -6374,25 +6347,25 @@
         <v>80</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>291</v>
+        <v>195</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>80</v>
@@ -6403,21 +6376,21 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>80</v>
+        <v>166</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>80</v>
@@ -6429,15 +6402,17 @@
         <v>80</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>198</v>
+        <v>133</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="N38" s="2"/>
+        <v>218</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>169</v>
+      </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>80</v>
@@ -6486,25 +6461,25 @@
         <v>80</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>80</v>
@@ -6515,14 +6490,14 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>172</v>
+        <v>220</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
@@ -6535,24 +6510,26 @@
         <v>80</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K39" t="s" s="2">
         <v>133</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="O39" s="2"/>
+        <v>169</v>
+      </c>
+      <c r="O39" t="s" s="2">
+        <v>170</v>
+      </c>
       <c r="P39" t="s" s="2">
         <v>80</v>
       </c>
@@ -6600,7 +6577,7 @@
         <v>80</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>203</v>
+        <v>223</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -6618,7 +6595,7 @@
         <v>80</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>218</v>
+        <v>131</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>80</v>
@@ -6629,46 +6606,42 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>226</v>
+        <v>80</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>133</v>
+        <v>230</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>227</v>
+        <v>292</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>176</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>80</v>
       </c>
@@ -6692,13 +6665,13 @@
         <v>80</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>80</v>
+        <v>233</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>80</v>
+        <v>234</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>80</v>
+        <v>235</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>80</v>
@@ -6716,25 +6689,25 @@
         <v>80</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>229</v>
+        <v>291</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>131</v>
+        <v>212</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>80</v>
@@ -6745,10 +6718,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6771,13 +6744,13 @@
         <v>80</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6804,13 +6777,13 @@
         <v>80</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>239</v>
+        <v>80</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>240</v>
+        <v>80</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>241</v>
+        <v>80</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>80</v>
@@ -6828,7 +6801,7 @@
         <v>80</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>88</v>
@@ -6846,7 +6819,7 @@
         <v>80</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>80</v>
@@ -6857,10 +6830,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6868,10 +6841,10 @@
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>80</v>
@@ -6880,18 +6853,20 @@
         <v>80</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>232</v>
+        <v>298</v>
       </c>
       <c r="L42" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="N42" t="s" s="2">
         <v>301</v>
       </c>
-      <c r="M42" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="N42" s="2"/>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>80</v>
@@ -6916,13 +6891,13 @@
         <v>80</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>80</v>
+        <v>302</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>80</v>
+        <v>303</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>80</v>
+        <v>304</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>80</v>
@@ -6940,13 +6915,13 @@
         <v>80</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>80</v>
@@ -6955,24 +6930,24 @@
         <v>100</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>80</v>
+        <v>305</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>218</v>
+        <v>306</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>80</v>
+        <v>237</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>80</v>
+        <v>307</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6983,7 +6958,7 @@
         <v>78</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>80</v>
@@ -6995,17 +6970,15 @@
         <v>89</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>307</v>
-      </c>
+        <v>310</v>
+      </c>
+      <c r="N43" s="2"/>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>80</v>
@@ -7030,37 +7003,37 @@
         <v>80</v>
       </c>
       <c r="X43" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="Y43" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="Z43" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="AA43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF43" t="s" s="2">
         <v>308</v>
       </c>
-      <c r="Y43" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="Z43" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="AA43" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB43" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC43" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD43" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE43" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF43" t="s" s="2">
-        <v>303</v>
-      </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>80</v>
@@ -7069,13 +7042,13 @@
         <v>100</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>243</v>
+        <v>80</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>313</v>
@@ -7106,16 +7079,16 @@
         <v>80</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>304</v>
+        <v>192</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>315</v>
+        <v>214</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>316</v>
+        <v>215</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -7142,13 +7115,13 @@
         <v>80</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>308</v>
+        <v>80</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>317</v>
+        <v>80</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>318</v>
+        <v>80</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>80</v>
@@ -7166,7 +7139,7 @@
         <v>80</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>314</v>
+        <v>195</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
@@ -7178,27 +7151,27 @@
         <v>80</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>311</v>
+        <v>80</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>319</v>
+        <v>80</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7209,7 +7182,7 @@
         <v>78</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>80</v>
@@ -7221,13 +7194,13 @@
         <v>80</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>198</v>
+        <v>133</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>220</v>
+        <v>134</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>221</v>
+        <v>135</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -7266,37 +7239,37 @@
         <v>80</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>80</v>
+        <v>136</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>80</v>
+        <v>241</v>
       </c>
       <c r="AD45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>218</v>
+        <v>80</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>80</v>
@@ -7307,12 +7280,14 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="C46" s="2"/>
+        <v>315</v>
+      </c>
+      <c r="C46" t="s" s="2">
+        <v>317</v>
+      </c>
       <c r="D46" t="s" s="2">
         <v>80</v>
       </c>
@@ -7333,15 +7308,17 @@
         <v>80</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>134</v>
+        <v>319</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="N46" s="2"/>
+        <v>310</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>320</v>
+      </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>80</v>
@@ -7378,19 +7355,19 @@
         <v>80</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>136</v>
+        <v>80</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>247</v>
+        <v>80</v>
       </c>
       <c r="AD46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
@@ -7419,14 +7396,12 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B47" t="s" s="2">
         <v>321</v>
       </c>
-      <c r="C47" t="s" s="2">
-        <v>323</v>
-      </c>
+      <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
         <v>80</v>
       </c>
@@ -7444,21 +7419,23 @@
         <v>80</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="N47" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="L47" t="s" s="2">
+      <c r="O47" t="s" s="2">
         <v>325</v>
       </c>
-      <c r="M47" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>80</v>
       </c>
@@ -7506,7 +7483,7 @@
         <v>80</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>203</v>
+        <v>326</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
@@ -7518,27 +7495,27 @@
         <v>80</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>80</v>
+        <v>327</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>80</v>
+        <v>328</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7549,7 +7526,7 @@
         <v>78</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>80</v>
@@ -7561,19 +7538,19 @@
         <v>89</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>236</v>
+        <v>192</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>80</v>
@@ -7622,13 +7599,13 @@
         <v>80</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>80</v>
@@ -7640,21 +7617,21 @@
         <v>80</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7674,23 +7651,19 @@
         <v>80</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>198</v>
+        <v>298</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="O49" t="s" s="2">
         <v>339</v>
       </c>
+      <c r="N49" s="2"/>
+      <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>80</v>
       </c>
@@ -7714,13 +7687,13 @@
         <v>80</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>80</v>
+        <v>302</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>80</v>
+        <v>339</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>80</v>
+        <v>340</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>80</v>
@@ -7738,7 +7711,7 @@
         <v>80</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
@@ -7759,22 +7732,22 @@
         <v>341</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>80</v>
+        <v>342</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>80</v>
+        <v>345</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -7790,18 +7763,20 @@
         <v>80</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>304</v>
+        <v>346</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="N50" s="2"/>
+        <v>348</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>349</v>
+      </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>80</v>
@@ -7826,13 +7801,13 @@
         <v>80</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>308</v>
+        <v>80</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>345</v>
+        <v>80</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>346</v>
+        <v>80</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>80</v>
@@ -7850,7 +7825,7 @@
         <v>80</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
@@ -7865,35 +7840,35 @@
         <v>100</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>80</v>
+        <v>350</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>349</v>
+        <v>353</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>351</v>
+        <v>80</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>80</v>
@@ -7905,17 +7880,15 @@
         <v>89</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>355</v>
-      </c>
+        <v>357</v>
+      </c>
+      <c r="N51" s="2"/>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>80</v>
@@ -7964,13 +7937,13 @@
         <v>80</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>80</v>
@@ -7979,28 +7952,28 @@
         <v>100</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>357</v>
+        <v>212</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>80</v>
+        <v>362</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
@@ -8016,16 +7989,16 @@
         <v>80</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -8076,7 +8049,7 @@
         <v>80</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
@@ -8091,28 +8064,28 @@
         <v>100</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>218</v>
+        <v>367</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>365</v>
+        <v>80</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>366</v>
+        <v>80</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>368</v>
+        <v>80</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -8128,16 +8101,16 @@
         <v>80</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="M53" t="s" s="2">
         <v>370</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>371</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -8188,7 +8161,7 @@
         <v>80</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
@@ -8203,16 +8176,16 @@
         <v>100</v>
       </c>
       <c r="AK53" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="AL53" t="s" s="2">
         <v>372</v>
       </c>
-      <c r="AL53" t="s" s="2">
+      <c r="AM53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN53" t="s" s="2">
         <v>373</v>
-      </c>
-      <c r="AM53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN53" t="s" s="2">
-        <v>80</v>
       </c>
     </row>
     <row r="54">
@@ -8231,7 +8204,7 @@
         <v>78</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>80</v>
@@ -8240,16 +8213,16 @@
         <v>80</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="L54" t="s" s="2">
-        <v>375</v>
-      </c>
       <c r="M54" t="s" s="2">
-        <v>376</v>
+        <v>215</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -8300,50 +8273,50 @@
         <v>80</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>374</v>
+        <v>195</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>377</v>
+        <v>80</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>378</v>
+        <v>212</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>379</v>
+        <v>80</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>80</v>
+        <v>166</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>80</v>
@@ -8355,15 +8328,17 @@
         <v>80</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>198</v>
+        <v>133</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="N55" s="2"/>
+        <v>218</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>169</v>
+      </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>80</v>
@@ -8412,25 +8387,25 @@
         <v>80</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>80</v>
@@ -8441,14 +8416,14 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>172</v>
+        <v>220</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
@@ -8461,24 +8436,26 @@
         <v>80</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K56" t="s" s="2">
         <v>133</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="O56" s="2"/>
+        <v>169</v>
+      </c>
+      <c r="O56" t="s" s="2">
+        <v>170</v>
+      </c>
       <c r="P56" t="s" s="2">
         <v>80</v>
       </c>
@@ -8526,7 +8503,7 @@
         <v>80</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>203</v>
+        <v>223</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
@@ -8544,7 +8521,7 @@
         <v>80</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>218</v>
+        <v>131</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>80</v>
@@ -8555,14 +8532,14 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>226</v>
+        <v>80</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -8575,26 +8552,24 @@
         <v>80</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J57" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>133</v>
+        <v>298</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>227</v>
+        <v>378</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>228</v>
+        <v>379</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="O57" t="s" s="2">
-        <v>176</v>
-      </c>
+        <v>380</v>
+      </c>
+      <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>80</v>
       </c>
@@ -8618,13 +8593,13 @@
         <v>80</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>80</v>
+        <v>233</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>80</v>
+        <v>379</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>80</v>
+        <v>381</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>80</v>
@@ -8642,7 +8617,7 @@
         <v>80</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>229</v>
+        <v>377</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
@@ -8654,27 +8629,27 @@
         <v>80</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>80</v>
+        <v>382</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>131</v>
+        <v>383</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>80</v>
+        <v>384</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8685,7 +8660,7 @@
         <v>78</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>80</v>
@@ -8694,20 +8669,18 @@
         <v>80</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>304</v>
+        <v>226</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>386</v>
-      </c>
+        <v>387</v>
+      </c>
+      <c r="N58" s="2"/>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>80</v>
@@ -8732,37 +8705,37 @@
         <v>80</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>239</v>
+        <v>80</v>
       </c>
       <c r="Y58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF58" t="s" s="2">
         <v>385</v>
       </c>
-      <c r="Z58" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="AA58" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB58" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC58" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD58" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE58" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF58" t="s" s="2">
-        <v>383</v>
-      </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>80</v>
@@ -8771,24 +8744,24 @@
         <v>100</v>
       </c>
       <c r="AK58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL58" t="s" s="2">
         <v>388</v>
       </c>
-      <c r="AL58" t="s" s="2">
+      <c r="AM58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN58" t="s" s="2">
         <v>389</v>
-      </c>
-      <c r="AM58" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN58" t="s" s="2">
-        <v>390</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8808,10 +8781,10 @@
         <v>80</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>232</v>
+        <v>391</v>
       </c>
       <c r="L59" t="s" s="2">
         <v>392</v>
@@ -8868,7 +8841,7 @@
         <v>80</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
@@ -8883,24 +8856,24 @@
         <v>100</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>80</v>
+        <v>394</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>80</v>
+        <v>396</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8911,7 +8884,7 @@
         <v>78</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>80</v>
@@ -8923,13 +8896,13 @@
         <v>89</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -8980,13 +8953,13 @@
         <v>80</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>80</v>
@@ -8995,13 +8968,13 @@
         <v>100</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>400</v>
+        <v>366</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>402</v>
+        <v>80</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>403</v>
@@ -9023,7 +8996,7 @@
         <v>78</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>80</v>
@@ -9032,18 +9005,20 @@
         <v>80</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="L61" t="s" s="2">
         <v>405</v>
       </c>
-      <c r="L61" t="s" s="2">
+      <c r="M61" t="s" s="2">
         <v>406</v>
       </c>
-      <c r="M61" t="s" s="2">
+      <c r="N61" t="s" s="2">
         <v>407</v>
       </c>
-      <c r="N61" s="2"/>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>80</v>
@@ -9098,7 +9073,7 @@
         <v>78</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>80</v>
@@ -9107,24 +9082,24 @@
         <v>100</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>372</v>
+        <v>408</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>80</v>
+        <v>410</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9147,16 +9122,16 @@
         <v>80</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>232</v>
+        <v>413</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -9206,7 +9181,7 @@
         <v>80</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>78</v>
@@ -9221,35 +9196,35 @@
         <v>100</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>416</v>
+        <v>80</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>80</v>
+        <v>420</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>80</v>
@@ -9258,19 +9233,19 @@
         <v>80</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>419</v>
+        <v>298</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -9296,13 +9271,13 @@
         <v>80</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>80</v>
+        <v>424</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>80</v>
+        <v>425</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>80</v>
@@ -9320,13 +9295,13 @@
         <v>80</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>80</v>
@@ -9335,28 +9310,28 @@
         <v>100</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>414</v>
+        <v>426</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>80</v>
+        <v>428</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>424</v>
+        <v>429</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
@@ -9375,16 +9350,16 @@
         <v>89</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>304</v>
+        <v>431</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -9410,31 +9385,31 @@
         <v>80</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="Y64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF64" t="s" s="2">
         <v>430</v>
-      </c>
-      <c r="Z64" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="AA64" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB64" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC64" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD64" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE64" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF64" t="s" s="2">
-        <v>425</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>78</v>
@@ -9449,28 +9424,28 @@
         <v>100</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>435</v>
+        <v>429</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>426</v>
+        <v>80</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
@@ -9489,17 +9464,15 @@
         <v>89</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>437</v>
+        <v>208</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>429</v>
-      </c>
+        <v>435</v>
+      </c>
+      <c r="N65" s="2"/>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>80</v>
@@ -9548,7 +9521,7 @@
         <v>80</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>78</v>
@@ -9563,24 +9536,24 @@
         <v>100</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>432</v>
+        <v>80</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>434</v>
+        <v>80</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>435</v>
+        <v>80</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9591,7 +9564,7 @@
         <v>78</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>80</v>
@@ -9600,16 +9573,16 @@
         <v>80</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K66" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="L66" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="L66" t="s" s="2">
-        <v>440</v>
-      </c>
       <c r="M66" t="s" s="2">
-        <v>441</v>
+        <v>215</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -9660,25 +9633,25 @@
         <v>80</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>439</v>
+        <v>195</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>442</v>
+        <v>212</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>80</v>
@@ -9689,21 +9662,21 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>80</v>
+        <v>166</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>80</v>
@@ -9715,15 +9688,17 @@
         <v>80</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>198</v>
+        <v>133</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="N67" s="2"/>
+        <v>218</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>169</v>
+      </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
         <v>80</v>
@@ -9772,25 +9747,25 @@
         <v>80</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>80</v>
@@ -9801,14 +9776,14 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>172</v>
+        <v>220</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
@@ -9821,24 +9796,26 @@
         <v>80</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K68" t="s" s="2">
         <v>133</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="O68" s="2"/>
+        <v>169</v>
+      </c>
+      <c r="O68" t="s" s="2">
+        <v>170</v>
+      </c>
       <c r="P68" t="s" s="2">
         <v>80</v>
       </c>
@@ -9886,7 +9863,7 @@
         <v>80</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>203</v>
+        <v>223</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>78</v>
@@ -9904,7 +9881,7 @@
         <v>80</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>218</v>
+        <v>131</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>80</v>
@@ -9915,46 +9892,44 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>226</v>
+        <v>441</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J69" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>133</v>
+        <v>442</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>227</v>
+        <v>443</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>228</v>
+        <v>444</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="O69" t="s" s="2">
-        <v>176</v>
-      </c>
+        <v>423</v>
+      </c>
+      <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>80</v>
       </c>
@@ -10002,47 +9977,47 @@
         <v>80</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>229</v>
+        <v>440</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>80</v>
+        <v>445</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>131</v>
+        <v>446</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>80</v>
+        <v>428</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>80</v>
+        <v>447</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>447</v>
+        <v>80</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>88</v>
@@ -10054,10 +10029,10 @@
         <v>80</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>448</v>
+        <v>298</v>
       </c>
       <c r="L70" t="s" s="2">
         <v>449</v>
@@ -10065,9 +10040,7 @@
       <c r="M70" t="s" s="2">
         <v>450</v>
       </c>
-      <c r="N70" t="s" s="2">
-        <v>429</v>
-      </c>
+      <c r="N70" s="2"/>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
         <v>80</v>
@@ -10092,13 +10065,13 @@
         <v>80</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>80</v>
+        <v>451</v>
       </c>
       <c r="Z70" t="s" s="2">
-        <v>80</v>
+        <v>452</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>80</v>
@@ -10116,10 +10089,10 @@
         <v>80</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>88</v>
@@ -10131,24 +10104,24 @@
         <v>100</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>451</v>
+        <v>80</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>452</v>
+        <v>212</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>434</v>
+        <v>80</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>453</v>
+        <v>80</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10171,7 +10144,7 @@
         <v>80</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>304</v>
+        <v>454</v>
       </c>
       <c r="L71" t="s" s="2">
         <v>455</v>
@@ -10204,13 +10177,13 @@
         <v>80</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>457</v>
+        <v>80</v>
       </c>
       <c r="Z71" t="s" s="2">
-        <v>458</v>
+        <v>80</v>
       </c>
       <c r="AA71" t="s" s="2">
         <v>80</v>
@@ -10228,7 +10201,7 @@
         <v>80</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>78</v>
@@ -10246,7 +10219,7 @@
         <v>80</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>218</v>
+        <v>457</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>80</v>
@@ -10257,10 +10230,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10271,7 +10244,7 @@
         <v>78</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>80</v>
@@ -10283,15 +10256,17 @@
         <v>80</v>
       </c>
       <c r="K72" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="L72" t="s" s="2">
         <v>460</v>
       </c>
-      <c r="L72" t="s" s="2">
+      <c r="M72" t="s" s="2">
         <v>461</v>
       </c>
-      <c r="M72" t="s" s="2">
+      <c r="N72" t="s" s="2">
         <v>462</v>
       </c>
-      <c r="N72" s="2"/>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
         <v>80</v>
@@ -10340,13 +10315,13 @@
         <v>80</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>80</v>
@@ -10383,7 +10358,7 @@
         <v>78</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>80</v>
@@ -10395,16 +10370,16 @@
         <v>80</v>
       </c>
       <c r="K73" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="L73" t="s" s="2">
         <v>465</v>
       </c>
-      <c r="L73" t="s" s="2">
+      <c r="M73" t="s" s="2">
         <v>466</v>
       </c>
-      <c r="M73" t="s" s="2">
+      <c r="N73" t="s" s="2">
         <v>467</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>468</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
@@ -10460,7 +10435,7 @@
         <v>78</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>80</v>
@@ -10472,7 +10447,7 @@
         <v>80</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>80</v>
@@ -10483,10 +10458,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10509,17 +10484,15 @@
         <v>80</v>
       </c>
       <c r="K74" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="L74" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="L74" t="s" s="2">
-        <v>471</v>
-      </c>
       <c r="M74" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>473</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="N74" s="2"/>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
         <v>80</v>
@@ -10568,7 +10541,7 @@
         <v>80</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>470</v>
+        <v>195</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>78</v>
@@ -10580,13 +10553,13 @@
         <v>80</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>474</v>
+        <v>212</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>80</v>
@@ -10597,21 +10570,21 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>80</v>
+        <v>166</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>80</v>
@@ -10623,15 +10596,17 @@
         <v>80</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>198</v>
+        <v>133</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="N75" s="2"/>
+        <v>218</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>169</v>
+      </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
         <v>80</v>
@@ -10680,25 +10655,25 @@
         <v>80</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>80</v>
@@ -10709,14 +10684,14 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
-        <v>172</v>
+        <v>220</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
@@ -10729,24 +10704,26 @@
         <v>80</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K76" t="s" s="2">
         <v>133</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="O76" s="2"/>
+        <v>169</v>
+      </c>
+      <c r="O76" t="s" s="2">
+        <v>170</v>
+      </c>
       <c r="P76" t="s" s="2">
         <v>80</v>
       </c>
@@ -10794,7 +10771,7 @@
         <v>80</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>203</v>
+        <v>223</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>78</v>
@@ -10812,7 +10789,7 @@
         <v>80</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>218</v>
+        <v>131</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>80</v>
@@ -10823,46 +10800,42 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
-        <v>226</v>
+        <v>80</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I77" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>133</v>
+        <v>173</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>227</v>
+        <v>473</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="O77" t="s" s="2">
-        <v>176</v>
-      </c>
+        <v>474</v>
+      </c>
+      <c r="N77" s="2"/>
+      <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
         <v>80</v>
       </c>
@@ -10910,39 +10883,39 @@
         <v>80</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>229</v>
+        <v>472</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>131</v>
+        <v>177</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>80</v>
+        <v>475</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -10965,13 +10938,13 @@
         <v>80</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>179</v>
+        <v>477</v>
       </c>
       <c r="L78" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="M78" t="s" s="2">
         <v>479</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>480</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" s="2"/>
@@ -11022,7 +10995,7 @@
         <v>80</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>78</v>
@@ -11040,21 +11013,21 @@
         <v>80</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>183</v>
+        <v>480</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>481</v>
+        <v>80</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11077,13 +11050,13 @@
         <v>80</v>
       </c>
       <c r="K79" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="L79" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="M79" t="s" s="2">
         <v>483</v>
-      </c>
-      <c r="L79" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>485</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -11110,13 +11083,13 @@
         <v>80</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>80</v>
+        <v>484</v>
       </c>
       <c r="Z79" t="s" s="2">
-        <v>80</v>
+        <v>485</v>
       </c>
       <c r="AA79" t="s" s="2">
         <v>80</v>
@@ -11134,7 +11107,7 @@
         <v>80</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>78</v>
@@ -11158,15 +11131,15 @@
         <v>80</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>80</v>
+        <v>487</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11189,13 +11162,13 @@
         <v>80</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -11222,13 +11195,13 @@
         <v>80</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>112</v>
+        <v>302</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="Z80" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>80</v>
@@ -11246,7 +11219,7 @@
         <v>80</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>78</v>
@@ -11264,7 +11237,7 @@
         <v>80</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>492</v>
+        <v>212</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>80</v>
@@ -11289,7 +11262,7 @@
         <v>78</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>80</v>
@@ -11301,7 +11274,7 @@
         <v>80</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="L81" t="s" s="2">
         <v>495</v>
@@ -11309,8 +11282,12 @@
       <c r="M81" t="s" s="2">
         <v>496</v>
       </c>
-      <c r="N81" s="2"/>
-      <c r="O81" s="2"/>
+      <c r="N81" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="O81" t="s" s="2">
+        <v>498</v>
+      </c>
       <c r="P81" t="s" s="2">
         <v>80</v>
       </c>
@@ -11334,13 +11311,13 @@
         <v>80</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="Z81" t="s" s="2">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="AA81" t="s" s="2">
         <v>80</v>
@@ -11364,7 +11341,7 @@
         <v>78</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>80</v>
@@ -11376,21 +11353,21 @@
         <v>80</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>218</v>
+        <v>501</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>499</v>
+        <v>502</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11413,20 +11390,16 @@
         <v>80</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="N82" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="O82" t="s" s="2">
-        <v>504</v>
-      </c>
+        <v>505</v>
+      </c>
+      <c r="N82" s="2"/>
+      <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
         <v>80</v>
       </c>
@@ -11450,13 +11423,13 @@
         <v>80</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>308</v>
+        <v>112</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="Z82" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="AA82" t="s" s="2">
         <v>80</v>
@@ -11474,7 +11447,7 @@
         <v>80</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>78</v>
@@ -11492,21 +11465,21 @@
         <v>80</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11529,13 +11502,13 @@
         <v>80</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" s="2"/>
@@ -11565,10 +11538,10 @@
         <v>112</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="Z83" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AA83" t="s" s="2">
         <v>80</v>
@@ -11586,7 +11559,7 @@
         <v>80</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>78</v>
@@ -11604,21 +11577,21 @@
         <v>80</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -11629,7 +11602,7 @@
         <v>78</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>80</v>
@@ -11641,13 +11614,13 @@
         <v>80</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>304</v>
+        <v>477</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" s="2"/>
@@ -11674,13 +11647,13 @@
         <v>80</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>519</v>
+        <v>80</v>
       </c>
       <c r="Z84" t="s" s="2">
-        <v>520</v>
+        <v>80</v>
       </c>
       <c r="AA84" t="s" s="2">
         <v>80</v>
@@ -11698,13 +11671,13 @@
         <v>80</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI84" t="s" s="2">
         <v>80</v>
@@ -11716,21 +11689,21 @@
         <v>80</v>
       </c>
       <c r="AL84" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="AM84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN84" t="s" s="2">
         <v>521</v>
-      </c>
-      <c r="AM84" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN84" t="s" s="2">
-        <v>522</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -11753,13 +11726,13 @@
         <v>80</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>483</v>
+        <v>298</v>
       </c>
       <c r="L85" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="M85" t="s" s="2">
         <v>524</v>
-      </c>
-      <c r="M85" t="s" s="2">
-        <v>525</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" s="2"/>
@@ -11786,13 +11759,13 @@
         <v>80</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>80</v>
+        <v>302</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>80</v>
+        <v>525</v>
       </c>
       <c r="Z85" t="s" s="2">
-        <v>80</v>
+        <v>526</v>
       </c>
       <c r="AA85" t="s" s="2">
         <v>80</v>
@@ -11810,7 +11783,7 @@
         <v>80</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>78</v>
@@ -11828,21 +11801,21 @@
         <v>80</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -11853,7 +11826,7 @@
         <v>78</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>80</v>
@@ -11865,15 +11838,17 @@
         <v>80</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>304</v>
+        <v>208</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>530</v>
-      </c>
-      <c r="N86" s="2"/>
+        <v>531</v>
+      </c>
+      <c r="N86" t="s" s="2">
+        <v>532</v>
+      </c>
       <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
         <v>80</v>
@@ -11898,13 +11873,13 @@
         <v>80</v>
       </c>
       <c r="X86" t="s" s="2">
-        <v>308</v>
+        <v>80</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>531</v>
+        <v>80</v>
       </c>
       <c r="Z86" t="s" s="2">
-        <v>532</v>
+        <v>80</v>
       </c>
       <c r="AA86" t="s" s="2">
         <v>80</v>
@@ -11922,13 +11897,13 @@
         <v>80</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI86" t="s" s="2">
         <v>80</v>
@@ -11946,15 +11921,15 @@
         <v>80</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>534</v>
+        <v>80</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -11965,7 +11940,7 @@
         <v>78</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>80</v>
@@ -11977,17 +11952,15 @@
         <v>80</v>
       </c>
       <c r="K87" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="L87" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="L87" t="s" s="2">
-        <v>536</v>
-      </c>
       <c r="M87" t="s" s="2">
-        <v>537</v>
-      </c>
-      <c r="N87" t="s" s="2">
-        <v>538</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="N87" s="2"/>
       <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
         <v>80</v>
@@ -12036,25 +12009,25 @@
         <v>80</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>535</v>
+        <v>195</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI87" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>539</v>
+        <v>212</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>80</v>
@@ -12065,10 +12038,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12079,7 +12052,7 @@
         <v>78</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>80</v>
@@ -12091,13 +12064,13 @@
         <v>80</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>198</v>
+        <v>133</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>220</v>
+        <v>134</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>221</v>
+        <v>135</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" s="2"/>
@@ -12136,37 +12109,35 @@
         <v>80</v>
       </c>
       <c r="AB88" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC88" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="AC88" s="2"/>
       <c r="AD88" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI88" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>218</v>
+        <v>80</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>80</v>
@@ -12177,12 +12148,14 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>541</v>
-      </c>
-      <c r="C89" s="2"/>
+        <v>535</v>
+      </c>
+      <c r="C89" t="s" s="2">
+        <v>537</v>
+      </c>
       <c r="D89" t="s" s="2">
         <v>80</v>
       </c>
@@ -12191,7 +12164,7 @@
         <v>78</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H89" t="s" s="2">
         <v>80</v>
@@ -12203,15 +12176,17 @@
         <v>80</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>133</v>
+        <v>538</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>134</v>
+        <v>539</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="N89" s="2"/>
+        <v>540</v>
+      </c>
+      <c r="N89" t="s" s="2">
+        <v>541</v>
+      </c>
       <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
         <v>80</v>
@@ -12248,17 +12223,19 @@
         <v>80</v>
       </c>
       <c r="AB89" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AC89" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="AC89" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="AD89" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>78</v>
@@ -12267,7 +12244,7 @@
         <v>79</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>80</v>
+        <v>146</v>
       </c>
       <c r="AJ89" t="s" s="2">
         <v>139</v>
@@ -12290,13 +12267,11 @@
         <v>542</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>541</v>
-      </c>
-      <c r="C90" t="s" s="2">
-        <v>543</v>
-      </c>
+        <v>542</v>
+      </c>
+      <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
-        <v>80</v>
+        <v>220</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
@@ -12309,24 +12284,26 @@
         <v>80</v>
       </c>
       <c r="I90" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>544</v>
+        <v>133</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>545</v>
+        <v>221</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>546</v>
+        <v>222</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>547</v>
-      </c>
-      <c r="O90" s="2"/>
+        <v>169</v>
+      </c>
+      <c r="O90" t="s" s="2">
+        <v>170</v>
+      </c>
       <c r="P90" t="s" s="2">
         <v>80</v>
       </c>
@@ -12374,7 +12351,7 @@
         <v>80</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>203</v>
+        <v>223</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>78</v>
@@ -12383,7 +12360,7 @@
         <v>79</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="AJ90" t="s" s="2">
         <v>139</v>
@@ -12392,7 +12369,7 @@
         <v>80</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>80</v>
+        <v>131</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>80</v>
@@ -12403,46 +12380,42 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
-        <v>226</v>
+        <v>80</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G91" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H91" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I91" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>133</v>
+        <v>544</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>227</v>
+        <v>545</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="N91" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="O91" t="s" s="2">
-        <v>176</v>
-      </c>
+        <v>546</v>
+      </c>
+      <c r="N91" s="2"/>
+      <c r="O91" s="2"/>
       <c r="P91" t="s" s="2">
         <v>80</v>
       </c>
@@ -12490,39 +12463,39 @@
         <v>80</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>229</v>
+        <v>543</v>
       </c>
       <c r="AG91" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH91" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI91" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>80</v>
+        <v>547</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>131</v>
+        <v>395</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>80</v>
+        <v>548</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>80</v>
+        <v>549</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -12530,7 +12503,7 @@
       </c>
       <c r="E92" s="2"/>
       <c r="F92" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G92" t="s" s="2">
         <v>88</v>
@@ -12545,7 +12518,7 @@
         <v>80</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>550</v>
+        <v>108</v>
       </c>
       <c r="L92" t="s" s="2">
         <v>551</v>
@@ -12553,7 +12526,9 @@
       <c r="M92" t="s" s="2">
         <v>552</v>
       </c>
-      <c r="N92" s="2"/>
+      <c r="N92" t="s" s="2">
+        <v>553</v>
+      </c>
       <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
         <v>80</v>
@@ -12578,13 +12553,13 @@
         <v>80</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>80</v>
+        <v>184</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>80</v>
+        <v>554</v>
       </c>
       <c r="Z92" t="s" s="2">
-        <v>80</v>
+        <v>555</v>
       </c>
       <c r="AA92" t="s" s="2">
         <v>80</v>
@@ -12602,10 +12577,10 @@
         <v>80</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="AG92" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH92" t="s" s="2">
         <v>88</v>
@@ -12617,24 +12592,24 @@
         <v>100</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>553</v>
+        <v>80</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>401</v>
+        <v>556</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>554</v>
+        <v>80</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>555</v>
+        <v>80</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -12657,13 +12632,13 @@
         <v>80</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>108</v>
+        <v>298</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>558</v>
+        <v>540</v>
       </c>
       <c r="N93" t="s" s="2">
         <v>559</v>
@@ -12692,7 +12667,7 @@
         <v>80</v>
       </c>
       <c r="X93" t="s" s="2">
-        <v>190</v>
+        <v>302</v>
       </c>
       <c r="Y93" t="s" s="2">
         <v>560</v>
@@ -12716,7 +12691,7 @@
         <v>80</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>78</v>
@@ -12734,7 +12709,7 @@
         <v>80</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>562</v>
+        <v>80</v>
       </c>
       <c r="AM93" t="s" s="2">
         <v>80</v>
@@ -12745,10 +12720,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -12771,17 +12746,15 @@
         <v>80</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>304</v>
+        <v>226</v>
       </c>
       <c r="L94" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="M94" t="s" s="2">
         <v>564</v>
       </c>
-      <c r="M94" t="s" s="2">
-        <v>565</v>
-      </c>
-      <c r="N94" t="s" s="2">
-        <v>566</v>
-      </c>
+      <c r="N94" s="2"/>
       <c r="O94" s="2"/>
       <c r="P94" t="s" s="2">
         <v>80</v>
@@ -12806,13 +12779,13 @@
         <v>80</v>
       </c>
       <c r="X94" t="s" s="2">
-        <v>308</v>
+        <v>80</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>567</v>
+        <v>80</v>
       </c>
       <c r="Z94" t="s" s="2">
-        <v>568</v>
+        <v>80</v>
       </c>
       <c r="AA94" t="s" s="2">
         <v>80</v>
@@ -12830,7 +12803,7 @@
         <v>80</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>78</v>
@@ -12848,7 +12821,7 @@
         <v>80</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>80</v>
+        <v>388</v>
       </c>
       <c r="AM94" t="s" s="2">
         <v>80</v>
@@ -12859,10 +12832,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -12885,13 +12858,13 @@
         <v>80</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>232</v>
+        <v>566</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" s="2"/>
@@ -12942,7 +12915,7 @@
         <v>80</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>78</v>
@@ -12957,24 +12930,24 @@
         <v>100</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>80</v>
+        <v>394</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>394</v>
+        <v>569</v>
       </c>
       <c r="AM95" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>80</v>
+        <v>570</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -12997,15 +12970,17 @@
         <v>80</v>
       </c>
       <c r="K96" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="L96" t="s" s="2">
         <v>573</v>
       </c>
-      <c r="L96" t="s" s="2">
+      <c r="M96" t="s" s="2">
         <v>574</v>
       </c>
-      <c r="M96" t="s" s="2">
+      <c r="N96" t="s" s="2">
         <v>575</v>
       </c>
-      <c r="N96" s="2"/>
       <c r="O96" s="2"/>
       <c r="P96" t="s" s="2">
         <v>80</v>
@@ -13054,7 +13029,7 @@
         <v>80</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>78</v>
@@ -13069,129 +13044,15 @@
         <v>100</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>400</v>
+        <v>576</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="AM96" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="s" s="2">
-        <v>578</v>
-      </c>
-      <c r="B97" t="s" s="2">
-        <v>578</v>
-      </c>
-      <c r="C97" s="2"/>
-      <c r="D97" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E97" s="2"/>
-      <c r="F97" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G97" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H97" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I97" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J97" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K97" t="s" s="2">
-        <v>579</v>
-      </c>
-      <c r="L97" t="s" s="2">
-        <v>580</v>
-      </c>
-      <c r="M97" t="s" s="2">
-        <v>581</v>
-      </c>
-      <c r="N97" t="s" s="2">
-        <v>582</v>
-      </c>
-      <c r="O97" s="2"/>
-      <c r="P97" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q97" s="2"/>
-      <c r="R97" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S97" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T97" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U97" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V97" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W97" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X97" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y97" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z97" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA97" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB97" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC97" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD97" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE97" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF97" t="s" s="2">
-        <v>578</v>
-      </c>
-      <c r="AG97" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH97" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI97" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ97" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK97" t="s" s="2">
-        <v>583</v>
-      </c>
-      <c r="AL97" t="s" s="2">
-        <v>584</v>
-      </c>
-      <c r="AM97" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN97" t="s" s="2">
         <v>80</v>
       </c>
     </row>
